--- a/jewels/epl/res_parsing08-06-22.xlsx
+++ b/jewels/epl/res_parsing08-06-22.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="129" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$295</definedName>
+  </definedNames>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2273" uniqueCount="1753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2595" uniqueCount="1783">
   <si>
     <t>title</t>
   </si>
@@ -6149,6 +6153,96 @@
   </si>
   <si>
     <t>https://epldiamond.ru/product/braslet-iz-belogo-zolota-585-s-brilliantami-e0901br09170200/?880614</t>
+  </si>
+  <si>
+    <t>https://epldiamond.ru/product/koltso-iz-belogo-zolota-585-s-brilliantami-e0901kts04153200/?888404</t>
+  </si>
+  <si>
+    <t>https://epldiamond.ru/product/koltso-iz-serebra-925-s-brilliantom-e0601kts02182400/?871467</t>
+  </si>
+  <si>
+    <t>https://epldiamond.ru/product/koltso-iz-belogo-zolota-585-s-brilliantom-e0901kts04200870/?1081275</t>
+  </si>
+  <si>
+    <t>https://epldiamond.ru/product/koltso-iz-zheltogo-zolota-585-s-brilliantom-e0301kts09150800/?871695</t>
+  </si>
+  <si>
+    <t>https://epldiamond.ru/product/koltso-iz-zheltogo-zolota-585-s-brilliantami-e0301kts06165300/?946559</t>
+  </si>
+  <si>
+    <t>https://epldiamond.ru/product/koltso-iz-zheltogo-zolota-585-s-brilliantom-e0301kts04160600/?928277</t>
+  </si>
+  <si>
+    <t>https://epldiamond.ru/product/koltso-iz-belogo-zolota-585-s-brilliantom-e0901kts03137900/?894584</t>
+  </si>
+  <si>
+    <t>https://epldiamond.ru/product/koltso-iz-zheltogo-zolota-585-s-brilliantami-e0301kts07131700/?928068</t>
+  </si>
+  <si>
+    <t>https://epldiamond.ru/product/koltso-iz-zheltogo-zolota-585-s-brilliantami-e0301kts07130400/?928067</t>
+  </si>
+  <si>
+    <t>https://epldiamond.ru/product/koltso-iz-belogo-zolota-585-s-brilliantami-e0901kts08151700/?1412823</t>
+  </si>
+  <si>
+    <t>https://epldiamond.ru/product/koltso-iz-zheltogo-zolota-585-s-brilliantami-e0301kts04151900/?1021447</t>
+  </si>
+  <si>
+    <t>https://epldiamond.ru/product/pusety-iz-zheltogo-zolota-585-s-brilliantami-e0301ps05182800/?1124551</t>
+  </si>
+  <si>
+    <t>https://epldiamond.ru/product/pusety-iz-belogo-zolota-585-s-brilliantami-e0901ps04185900/?952869</t>
+  </si>
+  <si>
+    <t>https://epldiamond.ru/product/sergi-iz-serebra-925-s-brilliantami-e0601sg02184900/?876314</t>
+  </si>
+  <si>
+    <t>https://epldiamond.ru/product/pusety-iz-belogo-zolota-585-s-brilliantami-e0901ps09170600/?1121763</t>
+  </si>
+  <si>
+    <t>https://epldiamond.ru/product/pusety-iz-serebra-925-s-brilliantami-e0601ps05115100/?927927</t>
+  </si>
+  <si>
+    <t>https://epldiamond.ru/product/sergi-iz-belogo-zolota-585-s-brilliantami-e0901sg02163200/?928274</t>
+  </si>
+  <si>
+    <t>https://epldiamond.ru/product/sergi-iz-zheltogo-zolota-585-s-brilliantami-e0301sg09104700/?878082</t>
+  </si>
+  <si>
+    <t>https://epldiamond.ru/product/sergi-iz-belogo-zolota-585-s-brilliantami-e0901sg01161700/?902954</t>
+  </si>
+  <si>
+    <t>https://epldiamond.ru/product/sergi-iz-krasnogo-zolota-585-s-brilliantami-e0201sg05157200/?988705</t>
+  </si>
+  <si>
+    <t>https://epldiamond.ru/product/sergi-iz-belogo-zolota-585-s-brilliantami-e0901sg07153700/?980024</t>
+  </si>
+  <si>
+    <t>https://epldiamond.ru/product/sergi-iz-belogo-zolota-585-s-brilliantami-e0901sg09100700/?1050349</t>
+  </si>
+  <si>
+    <t>https://epldiamond.ru/product/sergi-iz-belogo-zolota-585-s-brilliantami-e0901sg02184800/?1094975</t>
+  </si>
+  <si>
+    <t>https://epldiamond.ru/product/sergi-iz-belogo-zolota-585-s-brilliantami-e0901sg07080900/?928099</t>
+  </si>
+  <si>
+    <t>https://epldiamond.ru/product/podveska-iz-serebra-925-s-brilliantom-e0601pd04201230/?927981</t>
+  </si>
+  <si>
+    <t>https://epldiamond.ru/product/podveska-iz-belogo-zolota-585-s-brilliantom-e0901pd04202712/?904831</t>
+  </si>
+  <si>
+    <t>https://epldiamond.ru/product/podveska-iz-serebra-925-s-brilliantom-e0601pd04201236/?857126</t>
+  </si>
+  <si>
+    <t>https://epldiamond.ru/product/podveska-iz-zheltogo-zolota-585-s-brilliantom-e0301pd12092800/?1212241</t>
+  </si>
+  <si>
+    <t>https://epldiamond.ru/product/podveska-iz-serebra-925-s-brilliantom-e0601pd04201233/?927980</t>
+  </si>
+  <si>
+    <t>skipped_urls</t>
   </si>
 </sst>
 </file>
@@ -6226,8 +6320,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -6235,9 +6329,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -6275,7 +6369,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -6345,7 +6439,7 @@
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6519,13 +6613,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I295"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:P295"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="P297" sqref="P3:P297"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="9" max="9" width="53.7109375" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6551,7 +6655,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:16">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -6579,8 +6683,12 @@
       <c r="I2" s="2" t="s">
         <v>1490</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="N2" t="b">
+        <f t="shared" ref="N2:N65" si="0">I2=P2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -6608,8 +6716,12 @@
       <c r="I3" s="2" t="s">
         <v>1491</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="N3" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" hidden="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -6637,8 +6749,18 @@
       <c r="I4" s="2" t="s">
         <v>1492</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="N4" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -6657,8 +6779,18 @@
       <c r="H5" t="s">
         <v>1201</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="N5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>1</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" hidden="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -6686,8 +6818,18 @@
       <c r="I6" s="2" t="s">
         <v>1493</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="N6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O6" s="1">
+        <v>2</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" hidden="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -6715,8 +6857,18 @@
       <c r="I7" s="2" t="s">
         <v>1494</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="N7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O7" s="1">
+        <v>3</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" hidden="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -6744,8 +6896,18 @@
       <c r="I8" s="2" t="s">
         <v>1495</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="N8" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O8" s="1">
+        <v>4</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" hidden="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -6773,8 +6935,18 @@
       <c r="I9" s="2" t="s">
         <v>1496</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="N9" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O9" s="1">
+        <v>5</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" hidden="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -6802,8 +6974,18 @@
       <c r="I10" s="2" t="s">
         <v>1497</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="N10" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O10" s="1">
+        <v>6</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" hidden="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -6831,8 +7013,18 @@
       <c r="I11" s="2" t="s">
         <v>1498</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="N11" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O11" s="1">
+        <v>7</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" hidden="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -6860,8 +7052,18 @@
       <c r="I12" s="2" t="s">
         <v>1499</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="N12" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O12" s="1">
+        <v>8</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" hidden="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -6889,8 +7091,18 @@
       <c r="I13" s="2" t="s">
         <v>1500</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="N13" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O13" s="1">
+        <v>9</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" hidden="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -6918,8 +7130,18 @@
       <c r="I14" s="2" t="s">
         <v>1501</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="N14" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O14" s="1">
+        <v>10</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" hidden="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -6947,8 +7169,18 @@
       <c r="I15" s="2" t="s">
         <v>1502</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="N15" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O15" s="1">
+        <v>11</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" hidden="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -6976,8 +7208,18 @@
       <c r="I16" s="2" t="s">
         <v>1503</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="N16" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O16" s="1">
+        <v>12</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" hidden="1">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -7005,8 +7247,18 @@
       <c r="I17" s="2" t="s">
         <v>1504</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="N17" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O17" s="1">
+        <v>13</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" hidden="1">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -7034,8 +7286,18 @@
       <c r="I18" s="2" t="s">
         <v>1505</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="N18" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O18" s="1">
+        <v>14</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" hidden="1">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -7063,8 +7325,18 @@
       <c r="I19" s="2" t="s">
         <v>1506</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="N19" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O19" s="1">
+        <v>15</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" hidden="1">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -7092,8 +7364,18 @@
       <c r="I20" s="2" t="s">
         <v>1507</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="N20" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O20" s="1">
+        <v>16</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" hidden="1">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -7121,8 +7403,18 @@
       <c r="I21" s="2" t="s">
         <v>1508</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="N21" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O21" s="1">
+        <v>17</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" hidden="1">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -7150,8 +7442,18 @@
       <c r="I22" s="2" t="s">
         <v>1509</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="N22" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O22" s="1">
+        <v>18</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" hidden="1">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -7179,8 +7481,18 @@
       <c r="I23" s="2" t="s">
         <v>1510</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="N23" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O23" s="1">
+        <v>19</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" hidden="1">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -7208,8 +7520,18 @@
       <c r="I24" s="2" t="s">
         <v>1511</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="N24" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O24" s="1">
+        <v>20</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" hidden="1">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -7237,8 +7559,18 @@
       <c r="I25" s="2" t="s">
         <v>1512</v>
       </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="N25" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O25" s="1">
+        <v>21</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" hidden="1">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -7266,8 +7598,18 @@
       <c r="I26" s="2" t="s">
         <v>1513</v>
       </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="N26" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O26" s="1">
+        <v>22</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" hidden="1">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -7295,8 +7637,18 @@
       <c r="I27" s="2" t="s">
         <v>1514</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="N27" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O27" s="1">
+        <v>23</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" hidden="1">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -7324,8 +7676,18 @@
       <c r="I28" s="2" t="s">
         <v>1515</v>
       </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="N28" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O28" s="1">
+        <v>24</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" hidden="1">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -7353,8 +7715,18 @@
       <c r="I29" s="2" t="s">
         <v>1516</v>
       </c>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="N29" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O29" s="1">
+        <v>25</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" hidden="1">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -7382,8 +7754,18 @@
       <c r="I30" s="2" t="s">
         <v>1517</v>
       </c>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="N30" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O30" s="1">
+        <v>26</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" hidden="1">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -7411,8 +7793,18 @@
       <c r="I31" s="2" t="s">
         <v>1518</v>
       </c>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="N31" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O31" s="1">
+        <v>27</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" hidden="1">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -7440,8 +7832,18 @@
       <c r="I32" s="2" t="s">
         <v>1519</v>
       </c>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="N32" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O32" s="1">
+        <v>28</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" hidden="1">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -7469,8 +7871,18 @@
       <c r="I33" s="2" t="s">
         <v>1520</v>
       </c>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="N33" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O33" s="1">
+        <v>29</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" hidden="1">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -7498,8 +7910,18 @@
       <c r="I34" s="2" t="s">
         <v>1521</v>
       </c>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="N34" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O34" s="1">
+        <v>30</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -7518,8 +7940,18 @@
       <c r="H35" t="s">
         <v>1231</v>
       </c>
-    </row>
-    <row r="36" spans="1:9">
+      <c r="N35" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O35" s="1">
+        <v>31</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" hidden="1">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -7547,8 +7979,18 @@
       <c r="I36" s="2" t="s">
         <v>1522</v>
       </c>
-    </row>
-    <row r="37" spans="1:9">
+      <c r="N36" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O36" s="1">
+        <v>32</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" hidden="1">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -7576,8 +8018,18 @@
       <c r="I37" s="2" t="s">
         <v>1523</v>
       </c>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="N37" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O37" s="1">
+        <v>33</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -7596,8 +8048,18 @@
       <c r="H38" t="s">
         <v>1234</v>
       </c>
-    </row>
-    <row r="39" spans="1:9">
+      <c r="N38" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O38" s="1">
+        <v>34</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" hidden="1">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -7625,8 +8087,18 @@
       <c r="I39" s="2" t="s">
         <v>1524</v>
       </c>
-    </row>
-    <row r="40" spans="1:9">
+      <c r="N39" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O39" s="1">
+        <v>35</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" hidden="1">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -7654,8 +8126,18 @@
       <c r="I40" s="2" t="s">
         <v>1525</v>
       </c>
-    </row>
-    <row r="41" spans="1:9">
+      <c r="N40" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O40" s="1">
+        <v>36</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" hidden="1">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -7683,8 +8165,18 @@
       <c r="I41" s="2" t="s">
         <v>1526</v>
       </c>
-    </row>
-    <row r="42" spans="1:9">
+      <c r="N41" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O41" s="1">
+        <v>37</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" hidden="1">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -7712,8 +8204,18 @@
       <c r="I42" s="2" t="s">
         <v>1527</v>
       </c>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="N42" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O42" s="1">
+        <v>38</v>
+      </c>
+      <c r="P42" s="2" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" hidden="1">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -7741,8 +8243,18 @@
       <c r="I43" s="2" t="s">
         <v>1528</v>
       </c>
-    </row>
-    <row r="44" spans="1:9">
+      <c r="N43" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O43" s="1">
+        <v>39</v>
+      </c>
+      <c r="P43" s="2" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" hidden="1">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -7770,8 +8282,18 @@
       <c r="I44" s="2" t="s">
         <v>1529</v>
       </c>
-    </row>
-    <row r="45" spans="1:9">
+      <c r="N44" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O44" s="1">
+        <v>40</v>
+      </c>
+      <c r="P44" s="2" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" hidden="1">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -7799,8 +8321,18 @@
       <c r="I45" s="2" t="s">
         <v>1530</v>
       </c>
-    </row>
-    <row r="46" spans="1:9">
+      <c r="N45" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O45" s="1">
+        <v>41</v>
+      </c>
+      <c r="P45" s="2" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" hidden="1">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -7828,8 +8360,18 @@
       <c r="I46" s="2" t="s">
         <v>1531</v>
       </c>
-    </row>
-    <row r="47" spans="1:9">
+      <c r="N46" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O46" s="1">
+        <v>42</v>
+      </c>
+      <c r="P46" s="2" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" hidden="1">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -7857,8 +8399,18 @@
       <c r="I47" s="2" t="s">
         <v>1532</v>
       </c>
-    </row>
-    <row r="48" spans="1:9">
+      <c r="N47" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O47" s="1">
+        <v>43</v>
+      </c>
+      <c r="P47" s="2" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" hidden="1">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -7886,8 +8438,18 @@
       <c r="I48" s="2" t="s">
         <v>1533</v>
       </c>
-    </row>
-    <row r="49" spans="1:9">
+      <c r="N48" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O48" s="1">
+        <v>44</v>
+      </c>
+      <c r="P48" s="2" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" hidden="1">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -7915,8 +8477,18 @@
       <c r="I49" s="2" t="s">
         <v>1534</v>
       </c>
-    </row>
-    <row r="50" spans="1:9">
+      <c r="N49" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O49" s="1">
+        <v>45</v>
+      </c>
+      <c r="P49" s="2" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" hidden="1">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -7944,8 +8516,18 @@
       <c r="I50" s="2" t="s">
         <v>1535</v>
       </c>
-    </row>
-    <row r="51" spans="1:9">
+      <c r="N50" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O50" s="1">
+        <v>46</v>
+      </c>
+      <c r="P50" s="2" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" hidden="1">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -7973,8 +8555,18 @@
       <c r="I51" s="2" t="s">
         <v>1536</v>
       </c>
-    </row>
-    <row r="52" spans="1:9">
+      <c r="N51" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O51" s="1">
+        <v>47</v>
+      </c>
+      <c r="P51" s="2" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" hidden="1">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -8002,8 +8594,18 @@
       <c r="I52" s="2" t="s">
         <v>1537</v>
       </c>
-    </row>
-    <row r="53" spans="1:9">
+      <c r="N52" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O52" s="1">
+        <v>48</v>
+      </c>
+      <c r="P52" s="2" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" hidden="1">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -8031,8 +8633,18 @@
       <c r="I53" s="2" t="s">
         <v>1538</v>
       </c>
-    </row>
-    <row r="54" spans="1:9">
+      <c r="N53" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O53" s="1">
+        <v>49</v>
+      </c>
+      <c r="P53" s="2" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" hidden="1">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -8060,8 +8672,18 @@
       <c r="I54" s="2" t="s">
         <v>1539</v>
       </c>
-    </row>
-    <row r="55" spans="1:9">
+      <c r="N54" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O54" s="1">
+        <v>50</v>
+      </c>
+      <c r="P54" s="2" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" hidden="1">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -8089,8 +8711,18 @@
       <c r="I55" s="2" t="s">
         <v>1540</v>
       </c>
-    </row>
-    <row r="56" spans="1:9">
+      <c r="N55" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O55" s="1">
+        <v>51</v>
+      </c>
+      <c r="P55" s="2" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" hidden="1">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -8118,8 +8750,18 @@
       <c r="I56" s="2" t="s">
         <v>1541</v>
       </c>
-    </row>
-    <row r="57" spans="1:9">
+      <c r="N56" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O56" s="1">
+        <v>52</v>
+      </c>
+      <c r="P56" s="2" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" hidden="1">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -8147,8 +8789,18 @@
       <c r="I57" s="2" t="s">
         <v>1542</v>
       </c>
-    </row>
-    <row r="58" spans="1:9">
+      <c r="N57" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O57" s="1">
+        <v>53</v>
+      </c>
+      <c r="P57" s="2" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" hidden="1">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -8176,8 +8828,18 @@
       <c r="I58" s="2" t="s">
         <v>1543</v>
       </c>
-    </row>
-    <row r="59" spans="1:9">
+      <c r="N58" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O58" s="1">
+        <v>54</v>
+      </c>
+      <c r="P58" s="2" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -8196,8 +8858,18 @@
       <c r="H59" t="s">
         <v>1255</v>
       </c>
-    </row>
-    <row r="60" spans="1:9">
+      <c r="N59" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O59" s="1">
+        <v>55</v>
+      </c>
+      <c r="P59" s="2" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" hidden="1">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -8225,8 +8897,18 @@
       <c r="I60" s="2" t="s">
         <v>1544</v>
       </c>
-    </row>
-    <row r="61" spans="1:9">
+      <c r="N60" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O60" s="1">
+        <v>56</v>
+      </c>
+      <c r="P60" s="2" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" hidden="1">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -8254,8 +8936,18 @@
       <c r="I61" s="2" t="s">
         <v>1545</v>
       </c>
-    </row>
-    <row r="62" spans="1:9">
+      <c r="N61" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O61" s="1">
+        <v>57</v>
+      </c>
+      <c r="P61" s="2" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" hidden="1">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -8283,8 +8975,18 @@
       <c r="I62" s="2" t="s">
         <v>1546</v>
       </c>
-    </row>
-    <row r="63" spans="1:9">
+      <c r="N62" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O62" s="1">
+        <v>58</v>
+      </c>
+      <c r="P62" s="2" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" hidden="1">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -8312,8 +9014,18 @@
       <c r="I63" s="2" t="s">
         <v>1547</v>
       </c>
-    </row>
-    <row r="64" spans="1:9">
+      <c r="N63" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O63" s="1">
+        <v>59</v>
+      </c>
+      <c r="P63" s="2" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" hidden="1">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -8341,8 +9053,18 @@
       <c r="I64" s="2" t="s">
         <v>1548</v>
       </c>
-    </row>
-    <row r="65" spans="1:9">
+      <c r="N64" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O64" s="1">
+        <v>60</v>
+      </c>
+      <c r="P64" s="2" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" hidden="1">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -8370,8 +9092,18 @@
       <c r="I65" s="2" t="s">
         <v>1549</v>
       </c>
-    </row>
-    <row r="66" spans="1:9">
+      <c r="N65" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O65" s="1">
+        <v>61</v>
+      </c>
+      <c r="P65" s="2" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -8390,8 +9122,18 @@
       <c r="H66" t="s">
         <v>1262</v>
       </c>
-    </row>
-    <row r="67" spans="1:9">
+      <c r="N66" t="b">
+        <f t="shared" ref="N66:N129" si="1">I66=P66</f>
+        <v>0</v>
+      </c>
+      <c r="O66" s="1">
+        <v>62</v>
+      </c>
+      <c r="P66" s="2" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" hidden="1">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -8419,8 +9161,18 @@
       <c r="I67" s="2" t="s">
         <v>1550</v>
       </c>
-    </row>
-    <row r="68" spans="1:9">
+      <c r="N67" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O67" s="1">
+        <v>63</v>
+      </c>
+      <c r="P67" s="2" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" hidden="1">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -8448,8 +9200,18 @@
       <c r="I68" s="2" t="s">
         <v>1551</v>
       </c>
-    </row>
-    <row r="69" spans="1:9">
+      <c r="N68" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O68" s="1">
+        <v>64</v>
+      </c>
+      <c r="P68" s="2" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" hidden="1">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -8477,8 +9239,18 @@
       <c r="I69" s="2" t="s">
         <v>1552</v>
       </c>
-    </row>
-    <row r="70" spans="1:9">
+      <c r="N69" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O69" s="1">
+        <v>65</v>
+      </c>
+      <c r="P69" s="2" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" hidden="1">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -8506,8 +9278,18 @@
       <c r="I70" s="2" t="s">
         <v>1553</v>
       </c>
-    </row>
-    <row r="71" spans="1:9">
+      <c r="N70" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O70" s="1">
+        <v>66</v>
+      </c>
+      <c r="P70" s="2" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" hidden="1">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -8535,8 +9317,18 @@
       <c r="I71" s="2" t="s">
         <v>1554</v>
       </c>
-    </row>
-    <row r="72" spans="1:9">
+      <c r="N71" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O71" s="1">
+        <v>67</v>
+      </c>
+      <c r="P71" s="2" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" hidden="1">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -8564,8 +9356,18 @@
       <c r="I72" s="2" t="s">
         <v>1555</v>
       </c>
-    </row>
-    <row r="73" spans="1:9">
+      <c r="N72" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O72" s="1">
+        <v>68</v>
+      </c>
+      <c r="P72" s="2" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" hidden="1">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -8593,8 +9395,18 @@
       <c r="I73" s="2" t="s">
         <v>1556</v>
       </c>
-    </row>
-    <row r="74" spans="1:9">
+      <c r="N73" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O73" s="1">
+        <v>69</v>
+      </c>
+      <c r="P73" s="2" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" hidden="1">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -8622,8 +9434,18 @@
       <c r="I74" s="2" t="s">
         <v>1557</v>
       </c>
-    </row>
-    <row r="75" spans="1:9">
+      <c r="N74" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O74" s="1">
+        <v>70</v>
+      </c>
+      <c r="P74" s="2" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" hidden="1">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -8651,8 +9473,18 @@
       <c r="I75" s="2" t="s">
         <v>1558</v>
       </c>
-    </row>
-    <row r="76" spans="1:9">
+      <c r="N75" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O75" s="1">
+        <v>71</v>
+      </c>
+      <c r="P75" s="2" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" hidden="1">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -8680,8 +9512,18 @@
       <c r="I76" s="2" t="s">
         <v>1559</v>
       </c>
-    </row>
-    <row r="77" spans="1:9">
+      <c r="N76" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O76" s="1">
+        <v>72</v>
+      </c>
+      <c r="P76" s="2" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" hidden="1">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -8709,8 +9551,18 @@
       <c r="I77" s="2" t="s">
         <v>1560</v>
       </c>
-    </row>
-    <row r="78" spans="1:9">
+      <c r="N77" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O77" s="1">
+        <v>73</v>
+      </c>
+      <c r="P77" s="2" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" hidden="1">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -8738,8 +9590,18 @@
       <c r="I78" s="2" t="s">
         <v>1561</v>
       </c>
-    </row>
-    <row r="79" spans="1:9">
+      <c r="N78" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O78" s="1">
+        <v>74</v>
+      </c>
+      <c r="P78" s="2" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" hidden="1">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -8767,8 +9629,18 @@
       <c r="I79" s="2" t="s">
         <v>1562</v>
       </c>
-    </row>
-    <row r="80" spans="1:9">
+      <c r="N79" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O79" s="1">
+        <v>75</v>
+      </c>
+      <c r="P79" s="2" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" hidden="1">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -8796,8 +9668,18 @@
       <c r="I80" s="2" t="s">
         <v>1563</v>
       </c>
-    </row>
-    <row r="81" spans="1:9">
+      <c r="N80" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O80" s="1">
+        <v>76</v>
+      </c>
+      <c r="P80" s="2" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" hidden="1">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -8825,8 +9707,18 @@
       <c r="I81" s="2" t="s">
         <v>1564</v>
       </c>
-    </row>
-    <row r="82" spans="1:9">
+      <c r="N81" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O81" s="1">
+        <v>77</v>
+      </c>
+      <c r="P81" s="2" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" hidden="1">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -8854,8 +9746,18 @@
       <c r="I82" s="2" t="s">
         <v>1565</v>
       </c>
-    </row>
-    <row r="83" spans="1:9">
+      <c r="N82" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O82" s="1">
+        <v>78</v>
+      </c>
+      <c r="P82" s="2" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" hidden="1">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -8883,8 +9785,18 @@
       <c r="I83" s="2" t="s">
         <v>1566</v>
       </c>
-    </row>
-    <row r="84" spans="1:9">
+      <c r="N83" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O83" s="1">
+        <v>79</v>
+      </c>
+      <c r="P83" s="2" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" hidden="1">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -8912,8 +9824,18 @@
       <c r="I84" s="2" t="s">
         <v>1567</v>
       </c>
-    </row>
-    <row r="85" spans="1:9">
+      <c r="N84" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O84" s="1">
+        <v>80</v>
+      </c>
+      <c r="P84" s="2" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" hidden="1">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -8941,8 +9863,18 @@
       <c r="I85" s="2" t="s">
         <v>1568</v>
       </c>
-    </row>
-    <row r="86" spans="1:9">
+      <c r="N85" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O85" s="1">
+        <v>81</v>
+      </c>
+      <c r="P85" s="2" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" hidden="1">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -8970,8 +9902,18 @@
       <c r="I86" s="2" t="s">
         <v>1569</v>
       </c>
-    </row>
-    <row r="87" spans="1:9">
+      <c r="N86" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O86" s="1">
+        <v>82</v>
+      </c>
+      <c r="P86" s="2" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" hidden="1">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -8999,8 +9941,18 @@
       <c r="I87" s="2" t="s">
         <v>1570</v>
       </c>
-    </row>
-    <row r="88" spans="1:9">
+      <c r="N87" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O87" s="1">
+        <v>83</v>
+      </c>
+      <c r="P87" s="2" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" hidden="1">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -9028,8 +9980,18 @@
       <c r="I88" s="2" t="s">
         <v>1571</v>
       </c>
-    </row>
-    <row r="89" spans="1:9">
+      <c r="N88" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O88" s="1">
+        <v>84</v>
+      </c>
+      <c r="P88" s="2" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" hidden="1">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -9057,8 +10019,18 @@
       <c r="I89" s="2" t="s">
         <v>1572</v>
       </c>
-    </row>
-    <row r="90" spans="1:9">
+      <c r="N89" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O89" s="1">
+        <v>85</v>
+      </c>
+      <c r="P89" s="2" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" hidden="1">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -9086,8 +10058,18 @@
       <c r="I90" s="2" t="s">
         <v>1573</v>
       </c>
-    </row>
-    <row r="91" spans="1:9">
+      <c r="N90" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O90" s="1">
+        <v>86</v>
+      </c>
+      <c r="P90" s="2" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" hidden="1">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -9115,8 +10097,18 @@
       <c r="I91" s="2" t="s">
         <v>1574</v>
       </c>
-    </row>
-    <row r="92" spans="1:9">
+      <c r="N91" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O91" s="1">
+        <v>87</v>
+      </c>
+      <c r="P91" s="2" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -9135,8 +10127,18 @@
       <c r="H92" t="s">
         <v>1288</v>
       </c>
-    </row>
-    <row r="93" spans="1:9">
+      <c r="N92" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O92" s="1">
+        <v>88</v>
+      </c>
+      <c r="P92" s="2" t="s">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" hidden="1">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -9164,8 +10166,18 @@
       <c r="I93" s="2" t="s">
         <v>1575</v>
       </c>
-    </row>
-    <row r="94" spans="1:9">
+      <c r="N93" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O93" s="1">
+        <v>89</v>
+      </c>
+      <c r="P93" s="2" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" hidden="1">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -9193,8 +10205,18 @@
       <c r="I94" s="2" t="s">
         <v>1576</v>
       </c>
-    </row>
-    <row r="95" spans="1:9">
+      <c r="N94" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O94" s="1">
+        <v>90</v>
+      </c>
+      <c r="P94" s="2" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" hidden="1">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -9222,8 +10244,18 @@
       <c r="I95" s="2" t="s">
         <v>1577</v>
       </c>
-    </row>
-    <row r="96" spans="1:9">
+      <c r="N95" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O95" s="1">
+        <v>91</v>
+      </c>
+      <c r="P95" s="2" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" hidden="1">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -9251,8 +10283,18 @@
       <c r="I96" s="2" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="97" spans="1:9">
+      <c r="N96" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O96" s="1">
+        <v>92</v>
+      </c>
+      <c r="P96" s="2" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" hidden="1">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -9280,8 +10322,18 @@
       <c r="I97" s="2" t="s">
         <v>1579</v>
       </c>
-    </row>
-    <row r="98" spans="1:9">
+      <c r="N97" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O97" s="1">
+        <v>93</v>
+      </c>
+      <c r="P97" s="2" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" hidden="1">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -9309,8 +10361,18 @@
       <c r="I98" s="2" t="s">
         <v>1580</v>
       </c>
-    </row>
-    <row r="99" spans="1:9">
+      <c r="N98" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O98" s="1">
+        <v>94</v>
+      </c>
+      <c r="P98" s="2" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" hidden="1">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -9338,8 +10400,18 @@
       <c r="I99" s="2" t="s">
         <v>1581</v>
       </c>
-    </row>
-    <row r="100" spans="1:9">
+      <c r="N99" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O99" s="1">
+        <v>95</v>
+      </c>
+      <c r="P99" s="2" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" hidden="1">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -9367,8 +10439,18 @@
       <c r="I100" s="2" t="s">
         <v>1582</v>
       </c>
-    </row>
-    <row r="101" spans="1:9">
+      <c r="N100" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O100" s="1">
+        <v>96</v>
+      </c>
+      <c r="P100" s="2" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" hidden="1">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -9396,8 +10478,18 @@
       <c r="I101" s="2" t="s">
         <v>1583</v>
       </c>
-    </row>
-    <row r="102" spans="1:9">
+      <c r="N101" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O101" s="1">
+        <v>97</v>
+      </c>
+      <c r="P101" s="2" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" hidden="1">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -9425,8 +10517,18 @@
       <c r="I102" s="2" t="s">
         <v>1584</v>
       </c>
-    </row>
-    <row r="103" spans="1:9">
+      <c r="N102" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O102" s="1">
+        <v>98</v>
+      </c>
+      <c r="P102" s="2" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" hidden="1">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -9454,8 +10556,18 @@
       <c r="I103" s="2" t="s">
         <v>1585</v>
       </c>
-    </row>
-    <row r="104" spans="1:9">
+      <c r="N103" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O103" s="1">
+        <v>99</v>
+      </c>
+      <c r="P103" s="2" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" hidden="1">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -9483,8 +10595,18 @@
       <c r="I104" s="2" t="s">
         <v>1586</v>
       </c>
-    </row>
-    <row r="105" spans="1:9">
+      <c r="N104" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O104" s="1">
+        <v>100</v>
+      </c>
+      <c r="P104" s="2" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" hidden="1">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -9512,8 +10634,18 @@
       <c r="I105" s="2" t="s">
         <v>1587</v>
       </c>
-    </row>
-    <row r="106" spans="1:9">
+      <c r="N105" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O105" s="1">
+        <v>101</v>
+      </c>
+      <c r="P105" s="2" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -9532,8 +10664,18 @@
       <c r="H106" t="s">
         <v>1302</v>
       </c>
-    </row>
-    <row r="107" spans="1:9">
+      <c r="N106" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O106" s="1">
+        <v>102</v>
+      </c>
+      <c r="P106" s="2" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" hidden="1">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -9561,8 +10703,18 @@
       <c r="I107" s="2" t="s">
         <v>1588</v>
       </c>
-    </row>
-    <row r="108" spans="1:9">
+      <c r="N107" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O107" s="1">
+        <v>103</v>
+      </c>
+      <c r="P107" s="2" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" hidden="1">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -9590,8 +10742,18 @@
       <c r="I108" s="2" t="s">
         <v>1589</v>
       </c>
-    </row>
-    <row r="109" spans="1:9">
+      <c r="N108" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O108" s="1">
+        <v>104</v>
+      </c>
+      <c r="P108" s="2" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" hidden="1">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -9619,8 +10781,18 @@
       <c r="I109" s="2" t="s">
         <v>1590</v>
       </c>
-    </row>
-    <row r="110" spans="1:9">
+      <c r="N109" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O109" s="1">
+        <v>105</v>
+      </c>
+      <c r="P109" s="2" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -9639,8 +10811,18 @@
       <c r="H110" t="s">
         <v>1306</v>
       </c>
-    </row>
-    <row r="111" spans="1:9">
+      <c r="N110" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O110" s="1">
+        <v>106</v>
+      </c>
+      <c r="P110" s="2" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -9659,8 +10841,18 @@
       <c r="H111" t="s">
         <v>1307</v>
       </c>
-    </row>
-    <row r="112" spans="1:9">
+      <c r="N111" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O111" s="1">
+        <v>107</v>
+      </c>
+      <c r="P111" s="2" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" hidden="1">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -9688,8 +10880,18 @@
       <c r="I112" s="2" t="s">
         <v>1591</v>
       </c>
-    </row>
-    <row r="113" spans="1:9">
+      <c r="N112" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O112" s="1">
+        <v>108</v>
+      </c>
+      <c r="P112" s="2" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" hidden="1">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -9717,8 +10919,18 @@
       <c r="I113" s="2" t="s">
         <v>1592</v>
       </c>
-    </row>
-    <row r="114" spans="1:9">
+      <c r="N113" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O113" s="1">
+        <v>109</v>
+      </c>
+      <c r="P113" s="2" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -9737,8 +10949,18 @@
       <c r="H114" t="s">
         <v>1310</v>
       </c>
-    </row>
-    <row r="115" spans="1:9">
+      <c r="N114" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O114" s="1">
+        <v>110</v>
+      </c>
+      <c r="P114" s="2" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" hidden="1">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -9766,8 +10988,18 @@
       <c r="I115" s="2" t="s">
         <v>1593</v>
       </c>
-    </row>
-    <row r="116" spans="1:9">
+      <c r="N115" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O115" s="1">
+        <v>111</v>
+      </c>
+      <c r="P115" s="2" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" hidden="1">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -9795,8 +11027,18 @@
       <c r="I116" s="2" t="s">
         <v>1594</v>
       </c>
-    </row>
-    <row r="117" spans="1:9">
+      <c r="N116" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O116" s="1">
+        <v>112</v>
+      </c>
+      <c r="P116" s="2" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" hidden="1">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -9824,8 +11066,18 @@
       <c r="I117" s="2" t="s">
         <v>1595</v>
       </c>
-    </row>
-    <row r="118" spans="1:9">
+      <c r="N117" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O117" s="1">
+        <v>113</v>
+      </c>
+      <c r="P117" s="2" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" hidden="1">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -9853,8 +11105,18 @@
       <c r="I118" s="2" t="s">
         <v>1596</v>
       </c>
-    </row>
-    <row r="119" spans="1:9">
+      <c r="N118" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O118" s="1">
+        <v>114</v>
+      </c>
+      <c r="P118" s="2" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" hidden="1">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -9882,8 +11144,18 @@
       <c r="I119" s="2" t="s">
         <v>1597</v>
       </c>
-    </row>
-    <row r="120" spans="1:9">
+      <c r="N119" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O119" s="1">
+        <v>115</v>
+      </c>
+      <c r="P119" s="2" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -9902,8 +11174,18 @@
       <c r="H120" t="s">
         <v>1316</v>
       </c>
-    </row>
-    <row r="121" spans="1:9">
+      <c r="N120" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O120" s="1">
+        <v>116</v>
+      </c>
+      <c r="P120" s="2" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" hidden="1">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -9931,8 +11213,18 @@
       <c r="I121" s="2" t="s">
         <v>1598</v>
       </c>
-    </row>
-    <row r="122" spans="1:9">
+      <c r="N121" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O121" s="1">
+        <v>117</v>
+      </c>
+      <c r="P121" s="2" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" hidden="1">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -9960,8 +11252,18 @@
       <c r="I122" s="2" t="s">
         <v>1599</v>
       </c>
-    </row>
-    <row r="123" spans="1:9">
+      <c r="N122" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O122" s="1">
+        <v>118</v>
+      </c>
+      <c r="P122" s="2" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" hidden="1">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -9989,8 +11291,18 @@
       <c r="I123" s="2" t="s">
         <v>1600</v>
       </c>
-    </row>
-    <row r="124" spans="1:9">
+      <c r="N123" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O123" s="1">
+        <v>119</v>
+      </c>
+      <c r="P123" s="2" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" hidden="1">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -10018,8 +11330,18 @@
       <c r="I124" s="2" t="s">
         <v>1601</v>
       </c>
-    </row>
-    <row r="125" spans="1:9">
+      <c r="N124" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O124" s="1">
+        <v>120</v>
+      </c>
+      <c r="P124" s="2" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" hidden="1">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -10047,8 +11369,18 @@
       <c r="I125" s="2" t="s">
         <v>1602</v>
       </c>
-    </row>
-    <row r="126" spans="1:9">
+      <c r="N125" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O125" s="1">
+        <v>121</v>
+      </c>
+      <c r="P125" s="2" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" hidden="1">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -10076,8 +11408,18 @@
       <c r="I126" s="2" t="s">
         <v>1603</v>
       </c>
-    </row>
-    <row r="127" spans="1:9">
+      <c r="N126" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O126" s="1">
+        <v>122</v>
+      </c>
+      <c r="P126" s="2" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" hidden="1">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -10105,8 +11447,18 @@
       <c r="I127" s="2" t="s">
         <v>1604</v>
       </c>
-    </row>
-    <row r="128" spans="1:9">
+      <c r="N127" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O127" s="1">
+        <v>123</v>
+      </c>
+      <c r="P127" s="2" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" hidden="1">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -10134,8 +11486,18 @@
       <c r="I128" s="2" t="s">
         <v>1605</v>
       </c>
-    </row>
-    <row r="129" spans="1:9">
+      <c r="N128" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O128" s="1">
+        <v>124</v>
+      </c>
+      <c r="P128" s="2" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" hidden="1">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -10163,8 +11525,18 @@
       <c r="I129" s="2" t="s">
         <v>1606</v>
       </c>
-    </row>
-    <row r="130" spans="1:9">
+      <c r="N129" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O129" s="1">
+        <v>125</v>
+      </c>
+      <c r="P129" s="2" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" hidden="1">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -10192,8 +11564,18 @@
       <c r="I130" s="2" t="s">
         <v>1607</v>
       </c>
-    </row>
-    <row r="131" spans="1:9">
+      <c r="N130" t="b">
+        <f t="shared" ref="N130:N193" si="2">I130=P130</f>
+        <v>1</v>
+      </c>
+      <c r="O130" s="1">
+        <v>126</v>
+      </c>
+      <c r="P130" s="2" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" hidden="1">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -10221,8 +11603,18 @@
       <c r="I131" s="2" t="s">
         <v>1608</v>
       </c>
-    </row>
-    <row r="132" spans="1:9">
+      <c r="N131" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O131" s="1">
+        <v>127</v>
+      </c>
+      <c r="P131" s="2" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" hidden="1">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -10250,8 +11642,18 @@
       <c r="I132" s="2" t="s">
         <v>1609</v>
       </c>
-    </row>
-    <row r="133" spans="1:9">
+      <c r="N132" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O132" s="1">
+        <v>128</v>
+      </c>
+      <c r="P132" s="2" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" hidden="1">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -10279,8 +11681,18 @@
       <c r="I133" s="2" t="s">
         <v>1610</v>
       </c>
-    </row>
-    <row r="134" spans="1:9">
+      <c r="N133" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O133" s="1">
+        <v>129</v>
+      </c>
+      <c r="P133" s="2" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" hidden="1">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -10308,8 +11720,18 @@
       <c r="I134" s="2" t="s">
         <v>1611</v>
       </c>
-    </row>
-    <row r="135" spans="1:9">
+      <c r="N134" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O134" s="1">
+        <v>130</v>
+      </c>
+      <c r="P134" s="2" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" hidden="1">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -10337,8 +11759,18 @@
       <c r="I135" s="2" t="s">
         <v>1612</v>
       </c>
-    </row>
-    <row r="136" spans="1:9">
+      <c r="N135" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O135" s="1">
+        <v>131</v>
+      </c>
+      <c r="P135" s="2" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" hidden="1">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -10366,8 +11798,18 @@
       <c r="I136" s="2" t="s">
         <v>1613</v>
       </c>
-    </row>
-    <row r="137" spans="1:9">
+      <c r="N136" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O136" s="1">
+        <v>132</v>
+      </c>
+      <c r="P136" s="2" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" hidden="1">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -10395,8 +11837,18 @@
       <c r="I137" s="2" t="s">
         <v>1614</v>
       </c>
-    </row>
-    <row r="138" spans="1:9">
+      <c r="N137" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O137" s="1">
+        <v>133</v>
+      </c>
+      <c r="P137" s="2" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" hidden="1">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -10424,8 +11876,18 @@
       <c r="I138" s="2" t="s">
         <v>1615</v>
       </c>
-    </row>
-    <row r="139" spans="1:9">
+      <c r="N138" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O138" s="1">
+        <v>134</v>
+      </c>
+      <c r="P138" s="2" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -10444,8 +11906,18 @@
       <c r="H139" t="s">
         <v>1335</v>
       </c>
-    </row>
-    <row r="140" spans="1:9">
+      <c r="N139" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O139" s="1">
+        <v>135</v>
+      </c>
+      <c r="P139" s="2" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" hidden="1">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -10473,8 +11945,18 @@
       <c r="I140" s="2" t="s">
         <v>1616</v>
       </c>
-    </row>
-    <row r="141" spans="1:9">
+      <c r="N140" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O140" s="1">
+        <v>136</v>
+      </c>
+      <c r="P140" s="2" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" hidden="1">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -10502,8 +11984,18 @@
       <c r="I141" s="2" t="s">
         <v>1617</v>
       </c>
-    </row>
-    <row r="142" spans="1:9">
+      <c r="N141" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O141" s="1">
+        <v>137</v>
+      </c>
+      <c r="P141" s="2" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" hidden="1">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -10531,8 +12023,18 @@
       <c r="I142" s="2" t="s">
         <v>1618</v>
       </c>
-    </row>
-    <row r="143" spans="1:9">
+      <c r="N142" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O142" s="1">
+        <v>138</v>
+      </c>
+      <c r="P142" s="2" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" hidden="1">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -10560,8 +12062,18 @@
       <c r="I143" s="2" t="s">
         <v>1619</v>
       </c>
-    </row>
-    <row r="144" spans="1:9">
+      <c r="N143" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O143" s="1">
+        <v>139</v>
+      </c>
+      <c r="P143" s="2" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" hidden="1">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -10589,8 +12101,18 @@
       <c r="I144" s="2" t="s">
         <v>1620</v>
       </c>
-    </row>
-    <row r="145" spans="1:9">
+      <c r="N144" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O144" s="1">
+        <v>140</v>
+      </c>
+      <c r="P144" s="2" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" hidden="1">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -10618,8 +12140,18 @@
       <c r="I145" s="2" t="s">
         <v>1621</v>
       </c>
-    </row>
-    <row r="146" spans="1:9">
+      <c r="N145" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O145" s="1">
+        <v>141</v>
+      </c>
+      <c r="P145" s="2" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" hidden="1">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -10647,8 +12179,18 @@
       <c r="I146" s="2" t="s">
         <v>1622</v>
       </c>
-    </row>
-    <row r="147" spans="1:9">
+      <c r="N146" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O146" s="1">
+        <v>142</v>
+      </c>
+      <c r="P146" s="2" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" hidden="1">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -10676,8 +12218,18 @@
       <c r="I147" s="2" t="s">
         <v>1623</v>
       </c>
-    </row>
-    <row r="148" spans="1:9">
+      <c r="N147" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O147" s="1">
+        <v>143</v>
+      </c>
+      <c r="P147" s="2" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" hidden="1">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -10705,8 +12257,18 @@
       <c r="I148" s="2" t="s">
         <v>1624</v>
       </c>
-    </row>
-    <row r="149" spans="1:9">
+      <c r="N148" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O148" s="1">
+        <v>144</v>
+      </c>
+      <c r="P148" s="2" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" hidden="1">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -10734,8 +12296,18 @@
       <c r="I149" s="2" t="s">
         <v>1625</v>
       </c>
-    </row>
-    <row r="150" spans="1:9">
+      <c r="N149" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O149" s="1">
+        <v>145</v>
+      </c>
+      <c r="P149" s="2" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" hidden="1">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -10763,8 +12335,18 @@
       <c r="I150" s="2" t="s">
         <v>1626</v>
       </c>
-    </row>
-    <row r="151" spans="1:9">
+      <c r="N150" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O150" s="1">
+        <v>146</v>
+      </c>
+      <c r="P150" s="2" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" hidden="1">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -10792,8 +12374,18 @@
       <c r="I151" s="2" t="s">
         <v>1627</v>
       </c>
-    </row>
-    <row r="152" spans="1:9">
+      <c r="N151" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O151" s="1">
+        <v>147</v>
+      </c>
+      <c r="P151" s="2" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" hidden="1">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -10821,8 +12413,18 @@
       <c r="I152" s="2" t="s">
         <v>1628</v>
       </c>
-    </row>
-    <row r="153" spans="1:9">
+      <c r="N152" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O152" s="1">
+        <v>148</v>
+      </c>
+      <c r="P152" s="2" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -10841,8 +12443,18 @@
       <c r="H153" t="s">
         <v>1349</v>
       </c>
-    </row>
-    <row r="154" spans="1:9">
+      <c r="N153" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O153" s="1">
+        <v>149</v>
+      </c>
+      <c r="P153" s="2" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -10861,8 +12473,18 @@
       <c r="H154" t="s">
         <v>1350</v>
       </c>
-    </row>
-    <row r="155" spans="1:9">
+      <c r="N154" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O154" s="1">
+        <v>150</v>
+      </c>
+      <c r="P154" s="2" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" hidden="1">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -10890,8 +12512,18 @@
       <c r="I155" s="2" t="s">
         <v>1629</v>
       </c>
-    </row>
-    <row r="156" spans="1:9">
+      <c r="N155" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O155" s="1">
+        <v>151</v>
+      </c>
+      <c r="P155" s="2" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" hidden="1">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -10919,8 +12551,18 @@
       <c r="I156" s="2" t="s">
         <v>1630</v>
       </c>
-    </row>
-    <row r="157" spans="1:9">
+      <c r="N156" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O156" s="1">
+        <v>152</v>
+      </c>
+      <c r="P156" s="2" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -10939,8 +12581,18 @@
       <c r="H157" t="s">
         <v>1353</v>
       </c>
-    </row>
-    <row r="158" spans="1:9">
+      <c r="N157" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O157" s="1">
+        <v>153</v>
+      </c>
+      <c r="P157" s="2" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16" hidden="1">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -10968,8 +12620,18 @@
       <c r="I158" s="2" t="s">
         <v>1631</v>
       </c>
-    </row>
-    <row r="159" spans="1:9">
+      <c r="N158" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O158" s="1">
+        <v>154</v>
+      </c>
+      <c r="P158" s="2" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -10988,8 +12650,18 @@
       <c r="H159" t="s">
         <v>1355</v>
       </c>
-    </row>
-    <row r="160" spans="1:9">
+      <c r="N159" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O159" s="1">
+        <v>155</v>
+      </c>
+      <c r="P159" s="2" t="s">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16" hidden="1">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -11017,8 +12689,18 @@
       <c r="I160" s="2" t="s">
         <v>1632</v>
       </c>
-    </row>
-    <row r="161" spans="1:9">
+      <c r="N160" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O160" s="1">
+        <v>156</v>
+      </c>
+      <c r="P160" s="2" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -11037,8 +12719,18 @@
       <c r="H161" t="s">
         <v>1357</v>
       </c>
-    </row>
-    <row r="162" spans="1:9">
+      <c r="N161" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O161" s="1">
+        <v>157</v>
+      </c>
+      <c r="P161" s="2" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16" hidden="1">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -11066,8 +12758,18 @@
       <c r="I162" s="2" t="s">
         <v>1633</v>
       </c>
-    </row>
-    <row r="163" spans="1:9">
+      <c r="N162" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O162" s="1">
+        <v>158</v>
+      </c>
+      <c r="P162" s="2" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16" hidden="1">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -11095,8 +12797,18 @@
       <c r="I163" s="2" t="s">
         <v>1634</v>
       </c>
-    </row>
-    <row r="164" spans="1:9">
+      <c r="N163" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O163" s="1">
+        <v>159</v>
+      </c>
+      <c r="P163" s="2" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16" hidden="1">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -11124,8 +12836,18 @@
       <c r="I164" s="2" t="s">
         <v>1635</v>
       </c>
-    </row>
-    <row r="165" spans="1:9">
+      <c r="N164" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O164" s="1">
+        <v>160</v>
+      </c>
+      <c r="P164" s="2" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16" hidden="1">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -11153,8 +12875,18 @@
       <c r="I165" s="2" t="s">
         <v>1636</v>
       </c>
-    </row>
-    <row r="166" spans="1:9">
+      <c r="N165" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O165" s="1">
+        <v>161</v>
+      </c>
+      <c r="P165" s="2" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16" hidden="1">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -11182,8 +12914,18 @@
       <c r="I166" s="2" t="s">
         <v>1637</v>
       </c>
-    </row>
-    <row r="167" spans="1:9">
+      <c r="N166" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O166" s="1">
+        <v>162</v>
+      </c>
+      <c r="P166" s="2" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" hidden="1">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -11211,8 +12953,18 @@
       <c r="I167" s="2" t="s">
         <v>1638</v>
       </c>
-    </row>
-    <row r="168" spans="1:9">
+      <c r="N167" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O167" s="1">
+        <v>163</v>
+      </c>
+      <c r="P167" s="2" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16" hidden="1">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -11240,8 +12992,18 @@
       <c r="I168" s="2" t="s">
         <v>1639</v>
       </c>
-    </row>
-    <row r="169" spans="1:9">
+      <c r="N168" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O168" s="1">
+        <v>164</v>
+      </c>
+      <c r="P168" s="2" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16" hidden="1">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -11269,8 +13031,18 @@
       <c r="I169" s="2" t="s">
         <v>1640</v>
       </c>
-    </row>
-    <row r="170" spans="1:9">
+      <c r="N169" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O169" s="1">
+        <v>165</v>
+      </c>
+      <c r="P169" s="2" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16" hidden="1">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -11298,8 +13070,18 @@
       <c r="I170" s="2" t="s">
         <v>1641</v>
       </c>
-    </row>
-    <row r="171" spans="1:9">
+      <c r="N170" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O170" s="1">
+        <v>166</v>
+      </c>
+      <c r="P170" s="2" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="171" spans="1:16" hidden="1">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -11327,8 +13109,18 @@
       <c r="I171" s="2" t="s">
         <v>1642</v>
       </c>
-    </row>
-    <row r="172" spans="1:9">
+      <c r="N171" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O171" s="1">
+        <v>167</v>
+      </c>
+      <c r="P171" s="2" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="172" spans="1:16" hidden="1">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -11356,8 +13148,18 @@
       <c r="I172" s="2" t="s">
         <v>1643</v>
       </c>
-    </row>
-    <row r="173" spans="1:9">
+      <c r="N172" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O172" s="1">
+        <v>168</v>
+      </c>
+      <c r="P172" s="2" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16" hidden="1">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -11385,8 +13187,18 @@
       <c r="I173" s="2" t="s">
         <v>1644</v>
       </c>
-    </row>
-    <row r="174" spans="1:9">
+      <c r="N173" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O173" s="1">
+        <v>169</v>
+      </c>
+      <c r="P173" s="2" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16" hidden="1">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -11414,8 +13226,18 @@
       <c r="I174" s="2" t="s">
         <v>1645</v>
       </c>
-    </row>
-    <row r="175" spans="1:9">
+      <c r="N174" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O174" s="1">
+        <v>170</v>
+      </c>
+      <c r="P174" s="2" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="175" spans="1:16">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -11434,8 +13256,18 @@
       <c r="H175" t="s">
         <v>1371</v>
       </c>
-    </row>
-    <row r="176" spans="1:9">
+      <c r="N175" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O175" s="1">
+        <v>171</v>
+      </c>
+      <c r="P175" s="2" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="176" spans="1:16" hidden="1">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -11463,8 +13295,18 @@
       <c r="I176" s="2" t="s">
         <v>1646</v>
       </c>
-    </row>
-    <row r="177" spans="1:9">
+      <c r="N176" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O176" s="1">
+        <v>172</v>
+      </c>
+      <c r="P176" s="2" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="177" spans="1:16" hidden="1">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -11492,8 +13334,18 @@
       <c r="I177" s="2" t="s">
         <v>1647</v>
       </c>
-    </row>
-    <row r="178" spans="1:9">
+      <c r="N177" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O177" s="1">
+        <v>173</v>
+      </c>
+      <c r="P177" s="2" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="178" spans="1:16">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -11512,8 +13364,18 @@
       <c r="H178" t="s">
         <v>1374</v>
       </c>
-    </row>
-    <row r="179" spans="1:9">
+      <c r="N178" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O178" s="1">
+        <v>174</v>
+      </c>
+      <c r="P178" s="2" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="179" spans="1:16" hidden="1">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -11541,8 +13403,18 @@
       <c r="I179" s="2" t="s">
         <v>1648</v>
       </c>
-    </row>
-    <row r="180" spans="1:9">
+      <c r="N179" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O179" s="1">
+        <v>175</v>
+      </c>
+      <c r="P179" s="2" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="180" spans="1:16" hidden="1">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -11570,8 +13442,18 @@
       <c r="I180" s="2" t="s">
         <v>1649</v>
       </c>
-    </row>
-    <row r="181" spans="1:9">
+      <c r="N180" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O180" s="1">
+        <v>176</v>
+      </c>
+      <c r="P180" s="2" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="181" spans="1:16" hidden="1">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -11599,8 +13481,18 @@
       <c r="I181" s="2" t="s">
         <v>1650</v>
       </c>
-    </row>
-    <row r="182" spans="1:9">
+      <c r="N181" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O181" s="1">
+        <v>177</v>
+      </c>
+      <c r="P181" s="2" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="182" spans="1:16" hidden="1">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -11628,8 +13520,18 @@
       <c r="I182" s="2" t="s">
         <v>1651</v>
       </c>
-    </row>
-    <row r="183" spans="1:9">
+      <c r="N182" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O182" s="1">
+        <v>178</v>
+      </c>
+      <c r="P182" s="2" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="183" spans="1:16" hidden="1">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -11657,8 +13559,18 @@
       <c r="I183" s="2" t="s">
         <v>1652</v>
       </c>
-    </row>
-    <row r="184" spans="1:9">
+      <c r="N183" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O183" s="1">
+        <v>179</v>
+      </c>
+      <c r="P183" s="2" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="184" spans="1:16">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -11677,8 +13589,18 @@
       <c r="H184" t="s">
         <v>1380</v>
       </c>
-    </row>
-    <row r="185" spans="1:9">
+      <c r="N184" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O184" s="1">
+        <v>180</v>
+      </c>
+      <c r="P184" s="2" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="185" spans="1:16" hidden="1">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -11706,8 +13628,18 @@
       <c r="I185" s="2" t="s">
         <v>1653</v>
       </c>
-    </row>
-    <row r="186" spans="1:9">
+      <c r="N185" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O185" s="1">
+        <v>181</v>
+      </c>
+      <c r="P185" s="2" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="186" spans="1:16" hidden="1">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -11735,8 +13667,18 @@
       <c r="I186" s="2" t="s">
         <v>1654</v>
       </c>
-    </row>
-    <row r="187" spans="1:9">
+      <c r="N186" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O186" s="1">
+        <v>182</v>
+      </c>
+      <c r="P186" s="2" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="187" spans="1:16" hidden="1">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -11764,8 +13706,18 @@
       <c r="I187" s="2" t="s">
         <v>1655</v>
       </c>
-    </row>
-    <row r="188" spans="1:9">
+      <c r="N187" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O187" s="1">
+        <v>183</v>
+      </c>
+      <c r="P187" s="2" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="188" spans="1:16" hidden="1">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -11793,8 +13745,18 @@
       <c r="I188" s="2" t="s">
         <v>1656</v>
       </c>
-    </row>
-    <row r="189" spans="1:9">
+      <c r="N188" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O188" s="1">
+        <v>184</v>
+      </c>
+      <c r="P188" s="2" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="189" spans="1:16" hidden="1">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -11822,8 +13784,18 @@
       <c r="I189" s="2" t="s">
         <v>1657</v>
       </c>
-    </row>
-    <row r="190" spans="1:9">
+      <c r="N189" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O189" s="1">
+        <v>185</v>
+      </c>
+      <c r="P189" s="2" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="190" spans="1:16" hidden="1">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -11851,8 +13823,18 @@
       <c r="I190" s="2" t="s">
         <v>1658</v>
       </c>
-    </row>
-    <row r="191" spans="1:9">
+      <c r="N190" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O190" s="1">
+        <v>186</v>
+      </c>
+      <c r="P190" s="2" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="191" spans="1:16" hidden="1">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -11880,8 +13862,18 @@
       <c r="I191" s="2" t="s">
         <v>1659</v>
       </c>
-    </row>
-    <row r="192" spans="1:9">
+      <c r="N191" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O191" s="1">
+        <v>187</v>
+      </c>
+      <c r="P191" s="2" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="192" spans="1:16" hidden="1">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -11909,8 +13901,18 @@
       <c r="I192" s="2" t="s">
         <v>1660</v>
       </c>
-    </row>
-    <row r="193" spans="1:9">
+      <c r="N192" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O192" s="1">
+        <v>188</v>
+      </c>
+      <c r="P192" s="2" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="193" spans="1:16" hidden="1">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -11938,8 +13940,18 @@
       <c r="I193" s="2" t="s">
         <v>1661</v>
       </c>
-    </row>
-    <row r="194" spans="1:9">
+      <c r="N193" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O193" s="1">
+        <v>189</v>
+      </c>
+      <c r="P193" s="2" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="194" spans="1:16" hidden="1">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -11967,8 +13979,18 @@
       <c r="I194" s="2" t="s">
         <v>1662</v>
       </c>
-    </row>
-    <row r="195" spans="1:9">
+      <c r="N194" t="b">
+        <f t="shared" ref="N194:N257" si="3">I194=P194</f>
+        <v>1</v>
+      </c>
+      <c r="O194" s="1">
+        <v>190</v>
+      </c>
+      <c r="P194" s="2" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="195" spans="1:16" hidden="1">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -11996,8 +14018,18 @@
       <c r="I195" s="2" t="s">
         <v>1663</v>
       </c>
-    </row>
-    <row r="196" spans="1:9">
+      <c r="N195" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O195" s="1">
+        <v>191</v>
+      </c>
+      <c r="P195" s="2" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="196" spans="1:16" hidden="1">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -12025,8 +14057,18 @@
       <c r="I196" s="2" t="s">
         <v>1664</v>
       </c>
-    </row>
-    <row r="197" spans="1:9">
+      <c r="N196" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O196" s="1">
+        <v>192</v>
+      </c>
+      <c r="P196" s="2" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="197" spans="1:16" hidden="1">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -12054,8 +14096,18 @@
       <c r="I197" s="2" t="s">
         <v>1665</v>
       </c>
-    </row>
-    <row r="198" spans="1:9">
+      <c r="N197" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O197" s="1">
+        <v>193</v>
+      </c>
+      <c r="P197" s="2" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="198" spans="1:16" hidden="1">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -12083,8 +14135,18 @@
       <c r="I198" s="2" t="s">
         <v>1666</v>
       </c>
-    </row>
-    <row r="199" spans="1:9">
+      <c r="N198" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O198" s="1">
+        <v>194</v>
+      </c>
+      <c r="P198" s="2" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="199" spans="1:16" hidden="1">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -12112,8 +14174,18 @@
       <c r="I199" s="2" t="s">
         <v>1667</v>
       </c>
-    </row>
-    <row r="200" spans="1:9">
+      <c r="N199" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O199" s="1">
+        <v>195</v>
+      </c>
+      <c r="P199" s="2" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="200" spans="1:16">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -12132,8 +14204,18 @@
       <c r="H200" t="s">
         <v>1396</v>
       </c>
-    </row>
-    <row r="201" spans="1:9">
+      <c r="N200" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O200" s="1">
+        <v>196</v>
+      </c>
+      <c r="P200" s="2" t="s">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="201" spans="1:16" hidden="1">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -12161,8 +14243,18 @@
       <c r="I201" s="2" t="s">
         <v>1668</v>
       </c>
-    </row>
-    <row r="202" spans="1:9">
+      <c r="N201" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O201" s="1">
+        <v>197</v>
+      </c>
+      <c r="P201" s="2" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="202" spans="1:16" hidden="1">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -12190,8 +14282,18 @@
       <c r="I202" s="2" t="s">
         <v>1669</v>
       </c>
-    </row>
-    <row r="203" spans="1:9">
+      <c r="N202" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O202" s="1">
+        <v>198</v>
+      </c>
+      <c r="P202" s="2" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="203" spans="1:16" hidden="1">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -12219,8 +14321,18 @@
       <c r="I203" s="2" t="s">
         <v>1670</v>
       </c>
-    </row>
-    <row r="204" spans="1:9">
+      <c r="N203" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O203" s="1">
+        <v>199</v>
+      </c>
+      <c r="P203" s="2" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="204" spans="1:16" hidden="1">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -12248,8 +14360,18 @@
       <c r="I204" s="2" t="s">
         <v>1671</v>
       </c>
-    </row>
-    <row r="205" spans="1:9">
+      <c r="N204" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O204" s="1">
+        <v>200</v>
+      </c>
+      <c r="P204" s="2" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="205" spans="1:16" hidden="1">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -12277,8 +14399,18 @@
       <c r="I205" s="2" t="s">
         <v>1672</v>
       </c>
-    </row>
-    <row r="206" spans="1:9">
+      <c r="N205" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O205" s="1">
+        <v>201</v>
+      </c>
+      <c r="P205" s="2" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="206" spans="1:16" hidden="1">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -12306,8 +14438,18 @@
       <c r="I206" s="2" t="s">
         <v>1673</v>
       </c>
-    </row>
-    <row r="207" spans="1:9">
+      <c r="N206" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O206" s="1">
+        <v>202</v>
+      </c>
+      <c r="P206" s="2" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="207" spans="1:16" hidden="1">
       <c r="A207" s="1">
         <v>206</v>
       </c>
@@ -12335,8 +14477,18 @@
       <c r="I207" s="2" t="s">
         <v>1674</v>
       </c>
-    </row>
-    <row r="208" spans="1:9">
+      <c r="N207" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O207" s="1">
+        <v>203</v>
+      </c>
+      <c r="P207" s="2" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="208" spans="1:16" hidden="1">
       <c r="A208" s="1">
         <v>207</v>
       </c>
@@ -12364,8 +14516,18 @@
       <c r="I208" s="2" t="s">
         <v>1675</v>
       </c>
-    </row>
-    <row r="209" spans="1:9">
+      <c r="N208" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O208" s="1">
+        <v>204</v>
+      </c>
+      <c r="P208" s="2" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="209" spans="1:16" hidden="1">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -12393,8 +14555,18 @@
       <c r="I209" s="2" t="s">
         <v>1676</v>
       </c>
-    </row>
-    <row r="210" spans="1:9">
+      <c r="N209" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O209" s="1">
+        <v>205</v>
+      </c>
+      <c r="P209" s="2" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="210" spans="1:16" hidden="1">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -12422,8 +14594,18 @@
       <c r="I210" s="2" t="s">
         <v>1677</v>
       </c>
-    </row>
-    <row r="211" spans="1:9">
+      <c r="N210" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O210" s="1">
+        <v>206</v>
+      </c>
+      <c r="P210" s="2" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="211" spans="1:16" hidden="1">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -12451,8 +14633,18 @@
       <c r="I211" s="2" t="s">
         <v>1678</v>
       </c>
-    </row>
-    <row r="212" spans="1:9">
+      <c r="N211" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O211" s="1">
+        <v>207</v>
+      </c>
+      <c r="P211" s="2" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="212" spans="1:16" hidden="1">
       <c r="A212" s="1">
         <v>211</v>
       </c>
@@ -12480,8 +14672,18 @@
       <c r="I212" s="2" t="s">
         <v>1679</v>
       </c>
-    </row>
-    <row r="213" spans="1:9">
+      <c r="N212" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O212" s="1">
+        <v>208</v>
+      </c>
+      <c r="P212" s="2" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="213" spans="1:16" hidden="1">
       <c r="A213" s="1">
         <v>212</v>
       </c>
@@ -12509,8 +14711,18 @@
       <c r="I213" s="2" t="s">
         <v>1680</v>
       </c>
-    </row>
-    <row r="214" spans="1:9">
+      <c r="N213" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O213" s="1">
+        <v>209</v>
+      </c>
+      <c r="P213" s="2" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="214" spans="1:16" hidden="1">
       <c r="A214" s="1">
         <v>213</v>
       </c>
@@ -12538,8 +14750,18 @@
       <c r="I214" s="2" t="s">
         <v>1681</v>
       </c>
-    </row>
-    <row r="215" spans="1:9">
+      <c r="N214" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O214" s="1">
+        <v>210</v>
+      </c>
+      <c r="P214" s="2" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="215" spans="1:16" hidden="1">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -12567,8 +14789,18 @@
       <c r="I215" s="2" t="s">
         <v>1682</v>
       </c>
-    </row>
-    <row r="216" spans="1:9">
+      <c r="N215" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O215" s="1">
+        <v>211</v>
+      </c>
+      <c r="P215" s="2" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="216" spans="1:16" hidden="1">
       <c r="A216" s="1">
         <v>215</v>
       </c>
@@ -12596,8 +14828,18 @@
       <c r="I216" s="2" t="s">
         <v>1683</v>
       </c>
-    </row>
-    <row r="217" spans="1:9">
+      <c r="N216" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O216" s="1">
+        <v>212</v>
+      </c>
+      <c r="P216" s="2" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="217" spans="1:16">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -12616,8 +14858,18 @@
       <c r="H217" t="s">
         <v>1413</v>
       </c>
-    </row>
-    <row r="218" spans="1:9">
+      <c r="N217" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O217" s="1">
+        <v>213</v>
+      </c>
+      <c r="P217" s="2" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="218" spans="1:16" hidden="1">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -12645,8 +14897,18 @@
       <c r="I218" s="2" t="s">
         <v>1684</v>
       </c>
-    </row>
-    <row r="219" spans="1:9">
+      <c r="N218" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O218" s="1">
+        <v>214</v>
+      </c>
+      <c r="P218" s="2" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="219" spans="1:16" hidden="1">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -12674,8 +14936,18 @@
       <c r="I219" s="2" t="s">
         <v>1685</v>
       </c>
-    </row>
-    <row r="220" spans="1:9">
+      <c r="N219" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O219" s="1">
+        <v>215</v>
+      </c>
+      <c r="P219" s="2" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="220" spans="1:16">
       <c r="A220" s="1">
         <v>219</v>
       </c>
@@ -12694,8 +14966,18 @@
       <c r="H220" t="s">
         <v>1416</v>
       </c>
-    </row>
-    <row r="221" spans="1:9">
+      <c r="N220" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O220" s="1">
+        <v>216</v>
+      </c>
+      <c r="P220" s="2" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="221" spans="1:16">
       <c r="A221" s="1">
         <v>220</v>
       </c>
@@ -12714,8 +14996,18 @@
       <c r="H221" t="s">
         <v>1417</v>
       </c>
-    </row>
-    <row r="222" spans="1:9">
+      <c r="N221" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O221" s="1">
+        <v>217</v>
+      </c>
+      <c r="P221" s="2" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="222" spans="1:16" hidden="1">
       <c r="A222" s="1">
         <v>221</v>
       </c>
@@ -12743,8 +15035,18 @@
       <c r="I222" s="2" t="s">
         <v>1686</v>
       </c>
-    </row>
-    <row r="223" spans="1:9">
+      <c r="N222" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O222" s="1">
+        <v>218</v>
+      </c>
+      <c r="P222" s="2" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="223" spans="1:16" hidden="1">
       <c r="A223" s="1">
         <v>222</v>
       </c>
@@ -12772,8 +15074,18 @@
       <c r="I223" s="2" t="s">
         <v>1687</v>
       </c>
-    </row>
-    <row r="224" spans="1:9">
+      <c r="N223" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O223" s="1">
+        <v>219</v>
+      </c>
+      <c r="P223" s="2" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="224" spans="1:16" hidden="1">
       <c r="A224" s="1">
         <v>223</v>
       </c>
@@ -12801,8 +15113,18 @@
       <c r="I224" s="2" t="s">
         <v>1688</v>
       </c>
-    </row>
-    <row r="225" spans="1:9">
+      <c r="N224" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O224" s="1">
+        <v>220</v>
+      </c>
+      <c r="P224" s="2" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="225" spans="1:16" hidden="1">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -12830,8 +15152,18 @@
       <c r="I225" s="2" t="s">
         <v>1689</v>
       </c>
-    </row>
-    <row r="226" spans="1:9">
+      <c r="N225" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O225" s="1">
+        <v>221</v>
+      </c>
+      <c r="P225" s="2" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="226" spans="1:16" hidden="1">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -12859,8 +15191,18 @@
       <c r="I226" s="2" t="s">
         <v>1690</v>
       </c>
-    </row>
-    <row r="227" spans="1:9">
+      <c r="N226" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O226" s="1">
+        <v>222</v>
+      </c>
+      <c r="P226" s="2" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="227" spans="1:16" hidden="1">
       <c r="A227" s="1">
         <v>226</v>
       </c>
@@ -12888,8 +15230,18 @@
       <c r="I227" s="2" t="s">
         <v>1691</v>
       </c>
-    </row>
-    <row r="228" spans="1:9">
+      <c r="N227" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O227" s="1">
+        <v>223</v>
+      </c>
+      <c r="P227" s="2" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="228" spans="1:16" hidden="1">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -12917,8 +15269,18 @@
       <c r="I228" s="2" t="s">
         <v>1692</v>
       </c>
-    </row>
-    <row r="229" spans="1:9">
+      <c r="N228" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O228" s="1">
+        <v>224</v>
+      </c>
+      <c r="P228" s="2" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="229" spans="1:16" hidden="1">
       <c r="A229" s="1">
         <v>228</v>
       </c>
@@ -12946,8 +15308,18 @@
       <c r="I229" s="2" t="s">
         <v>1693</v>
       </c>
-    </row>
-    <row r="230" spans="1:9">
+      <c r="N229" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O229" s="1">
+        <v>225</v>
+      </c>
+      <c r="P229" s="2" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="230" spans="1:16" hidden="1">
       <c r="A230" s="1">
         <v>229</v>
       </c>
@@ -12975,8 +15347,18 @@
       <c r="I230" s="2" t="s">
         <v>1694</v>
       </c>
-    </row>
-    <row r="231" spans="1:9">
+      <c r="N230" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O230" s="1">
+        <v>226</v>
+      </c>
+      <c r="P230" s="2" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="231" spans="1:16" hidden="1">
       <c r="A231" s="1">
         <v>230</v>
       </c>
@@ -13004,8 +15386,18 @@
       <c r="I231" s="2" t="s">
         <v>1695</v>
       </c>
-    </row>
-    <row r="232" spans="1:9">
+      <c r="N231" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O231" s="1">
+        <v>227</v>
+      </c>
+      <c r="P231" s="2" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="232" spans="1:16" hidden="1">
       <c r="A232" s="1">
         <v>231</v>
       </c>
@@ -13033,8 +15425,18 @@
       <c r="I232" s="2" t="s">
         <v>1696</v>
       </c>
-    </row>
-    <row r="233" spans="1:9">
+      <c r="N232" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O232" s="1">
+        <v>228</v>
+      </c>
+      <c r="P232" s="2" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="233" spans="1:16" hidden="1">
       <c r="A233" s="1">
         <v>232</v>
       </c>
@@ -13062,8 +15464,18 @@
       <c r="I233" s="2" t="s">
         <v>1697</v>
       </c>
-    </row>
-    <row r="234" spans="1:9">
+      <c r="N233" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O233" s="1">
+        <v>229</v>
+      </c>
+      <c r="P233" s="2" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="234" spans="1:16" hidden="1">
       <c r="A234" s="1">
         <v>233</v>
       </c>
@@ -13091,8 +15503,18 @@
       <c r="I234" s="2" t="s">
         <v>1698</v>
       </c>
-    </row>
-    <row r="235" spans="1:9">
+      <c r="N234" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O234" s="1">
+        <v>230</v>
+      </c>
+      <c r="P234" s="2" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="235" spans="1:16" hidden="1">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -13120,8 +15542,18 @@
       <c r="I235" s="2" t="s">
         <v>1699</v>
       </c>
-    </row>
-    <row r="236" spans="1:9">
+      <c r="N235" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O235" s="1">
+        <v>231</v>
+      </c>
+      <c r="P235" s="2" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="236" spans="1:16" hidden="1">
       <c r="A236" s="1">
         <v>235</v>
       </c>
@@ -13149,8 +15581,18 @@
       <c r="I236" s="2" t="s">
         <v>1700</v>
       </c>
-    </row>
-    <row r="237" spans="1:9">
+      <c r="N236" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O236" s="1">
+        <v>232</v>
+      </c>
+      <c r="P236" s="2" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="237" spans="1:16" hidden="1">
       <c r="A237" s="1">
         <v>236</v>
       </c>
@@ -13178,8 +15620,18 @@
       <c r="I237" s="2" t="s">
         <v>1701</v>
       </c>
-    </row>
-    <row r="238" spans="1:9">
+      <c r="N237" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O237" s="1">
+        <v>233</v>
+      </c>
+      <c r="P237" s="2" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="238" spans="1:16" hidden="1">
       <c r="A238" s="1">
         <v>237</v>
       </c>
@@ -13207,8 +15659,18 @@
       <c r="I238" s="2" t="s">
         <v>1702</v>
       </c>
-    </row>
-    <row r="239" spans="1:9">
+      <c r="N238" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O238" s="1">
+        <v>234</v>
+      </c>
+      <c r="P238" s="2" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="239" spans="1:16">
       <c r="A239" s="1">
         <v>238</v>
       </c>
@@ -13227,8 +15689,18 @@
       <c r="H239" t="s">
         <v>1435</v>
       </c>
-    </row>
-    <row r="240" spans="1:9">
+      <c r="N239" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O239" s="1">
+        <v>235</v>
+      </c>
+      <c r="P239" s="2" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="240" spans="1:16" hidden="1">
       <c r="A240" s="1">
         <v>239</v>
       </c>
@@ -13256,8 +15728,18 @@
       <c r="I240" s="2" t="s">
         <v>1703</v>
       </c>
-    </row>
-    <row r="241" spans="1:9">
+      <c r="N240" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O240" s="1">
+        <v>236</v>
+      </c>
+      <c r="P240" s="2" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="241" spans="1:16" hidden="1">
       <c r="A241" s="1">
         <v>240</v>
       </c>
@@ -13285,8 +15767,18 @@
       <c r="I241" s="2" t="s">
         <v>1704</v>
       </c>
-    </row>
-    <row r="242" spans="1:9">
+      <c r="N241" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O241" s="1">
+        <v>237</v>
+      </c>
+      <c r="P241" s="2" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="242" spans="1:16" hidden="1">
       <c r="A242" s="1">
         <v>241</v>
       </c>
@@ -13314,8 +15806,18 @@
       <c r="I242" s="2" t="s">
         <v>1705</v>
       </c>
-    </row>
-    <row r="243" spans="1:9">
+      <c r="N242" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O242" s="1">
+        <v>238</v>
+      </c>
+      <c r="P242" s="2" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="243" spans="1:16">
       <c r="A243" s="1">
         <v>242</v>
       </c>
@@ -13334,8 +15836,18 @@
       <c r="H243" t="s">
         <v>1439</v>
       </c>
-    </row>
-    <row r="244" spans="1:9">
+      <c r="N243" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O243" s="1">
+        <v>239</v>
+      </c>
+      <c r="P243" s="2" t="s">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="244" spans="1:16" hidden="1">
       <c r="A244" s="1">
         <v>243</v>
       </c>
@@ -13363,8 +15875,18 @@
       <c r="I244" s="2" t="s">
         <v>1706</v>
       </c>
-    </row>
-    <row r="245" spans="1:9">
+      <c r="N244" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O244" s="1">
+        <v>240</v>
+      </c>
+      <c r="P244" s="2" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="245" spans="1:16" hidden="1">
       <c r="A245" s="1">
         <v>244</v>
       </c>
@@ -13392,8 +15914,18 @@
       <c r="I245" s="2" t="s">
         <v>1707</v>
       </c>
-    </row>
-    <row r="246" spans="1:9">
+      <c r="N245" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O245" s="1">
+        <v>241</v>
+      </c>
+      <c r="P245" s="2" t="s">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="246" spans="1:16" hidden="1">
       <c r="A246" s="1">
         <v>245</v>
       </c>
@@ -13421,8 +15953,18 @@
       <c r="I246" s="2" t="s">
         <v>1708</v>
       </c>
-    </row>
-    <row r="247" spans="1:9">
+      <c r="N246" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O246" s="1">
+        <v>242</v>
+      </c>
+      <c r="P246" s="2" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="247" spans="1:16" hidden="1">
       <c r="A247" s="1">
         <v>246</v>
       </c>
@@ -13450,8 +15992,18 @@
       <c r="I247" s="2" t="s">
         <v>1709</v>
       </c>
-    </row>
-    <row r="248" spans="1:9">
+      <c r="N247" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O247" s="1">
+        <v>243</v>
+      </c>
+      <c r="P247" s="2" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="248" spans="1:16" hidden="1">
       <c r="A248" s="1">
         <v>247</v>
       </c>
@@ -13479,8 +16031,18 @@
       <c r="I248" s="2" t="s">
         <v>1710</v>
       </c>
-    </row>
-    <row r="249" spans="1:9">
+      <c r="N248" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O248" s="1">
+        <v>244</v>
+      </c>
+      <c r="P248" s="2" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="249" spans="1:16" hidden="1">
       <c r="A249" s="1">
         <v>248</v>
       </c>
@@ -13508,8 +16070,18 @@
       <c r="I249" s="2" t="s">
         <v>1711</v>
       </c>
-    </row>
-    <row r="250" spans="1:9">
+      <c r="N249" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O249" s="1">
+        <v>245</v>
+      </c>
+      <c r="P249" s="2" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="250" spans="1:16" hidden="1">
       <c r="A250" s="1">
         <v>249</v>
       </c>
@@ -13537,8 +16109,18 @@
       <c r="I250" s="2" t="s">
         <v>1712</v>
       </c>
-    </row>
-    <row r="251" spans="1:9">
+      <c r="N250" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O250" s="1">
+        <v>246</v>
+      </c>
+      <c r="P250" s="2" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="251" spans="1:16" hidden="1">
       <c r="A251" s="1">
         <v>250</v>
       </c>
@@ -13566,8 +16148,18 @@
       <c r="I251" s="2" t="s">
         <v>1713</v>
       </c>
-    </row>
-    <row r="252" spans="1:9">
+      <c r="N251" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O251" s="1">
+        <v>247</v>
+      </c>
+      <c r="P251" s="2" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="252" spans="1:16" hidden="1">
       <c r="A252" s="1">
         <v>251</v>
       </c>
@@ -13595,8 +16187,18 @@
       <c r="I252" s="2" t="s">
         <v>1714</v>
       </c>
-    </row>
-    <row r="253" spans="1:9">
+      <c r="N252" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O252" s="1">
+        <v>248</v>
+      </c>
+      <c r="P252" s="2" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="253" spans="1:16" hidden="1">
       <c r="A253" s="1">
         <v>252</v>
       </c>
@@ -13624,8 +16226,18 @@
       <c r="I253" s="2" t="s">
         <v>1715</v>
       </c>
-    </row>
-    <row r="254" spans="1:9">
+      <c r="N253" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O253" s="1">
+        <v>249</v>
+      </c>
+      <c r="P253" s="2" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="254" spans="1:16" hidden="1">
       <c r="A254" s="1">
         <v>253</v>
       </c>
@@ -13653,8 +16265,18 @@
       <c r="I254" s="2" t="s">
         <v>1716</v>
       </c>
-    </row>
-    <row r="255" spans="1:9">
+      <c r="N254" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O254" s="1">
+        <v>250</v>
+      </c>
+      <c r="P254" s="2" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="255" spans="1:16">
       <c r="A255" s="1">
         <v>254</v>
       </c>
@@ -13673,8 +16295,18 @@
       <c r="H255" t="s">
         <v>1451</v>
       </c>
-    </row>
-    <row r="256" spans="1:9">
+      <c r="N255" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O255" s="1">
+        <v>251</v>
+      </c>
+      <c r="P255" s="2" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="256" spans="1:16" hidden="1">
       <c r="A256" s="1">
         <v>255</v>
       </c>
@@ -13702,8 +16334,18 @@
       <c r="I256" s="2" t="s">
         <v>1717</v>
       </c>
-    </row>
-    <row r="257" spans="1:9">
+      <c r="N256" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O256" s="1">
+        <v>252</v>
+      </c>
+      <c r="P256" s="2" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="257" spans="1:16" hidden="1">
       <c r="A257" s="1">
         <v>256</v>
       </c>
@@ -13731,8 +16373,18 @@
       <c r="I257" s="2" t="s">
         <v>1718</v>
       </c>
-    </row>
-    <row r="258" spans="1:9">
+      <c r="N257" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O257" s="1">
+        <v>253</v>
+      </c>
+      <c r="P257" s="2" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="258" spans="1:16" hidden="1">
       <c r="A258" s="1">
         <v>257</v>
       </c>
@@ -13760,8 +16412,18 @@
       <c r="I258" s="2" t="s">
         <v>1719</v>
       </c>
-    </row>
-    <row r="259" spans="1:9">
+      <c r="N258" t="b">
+        <f t="shared" ref="N258:N294" si="4">I258=P258</f>
+        <v>1</v>
+      </c>
+      <c r="O258" s="1">
+        <v>254</v>
+      </c>
+      <c r="P258" s="2" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="259" spans="1:16" hidden="1">
       <c r="A259" s="1">
         <v>258</v>
       </c>
@@ -13789,8 +16451,18 @@
       <c r="I259" s="2" t="s">
         <v>1720</v>
       </c>
-    </row>
-    <row r="260" spans="1:9">
+      <c r="N259" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O259" s="1">
+        <v>255</v>
+      </c>
+      <c r="P259" s="2" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="260" spans="1:16" hidden="1">
       <c r="A260" s="1">
         <v>259</v>
       </c>
@@ -13818,8 +16490,18 @@
       <c r="I260" s="2" t="s">
         <v>1721</v>
       </c>
-    </row>
-    <row r="261" spans="1:9">
+      <c r="N260" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O260" s="1">
+        <v>256</v>
+      </c>
+      <c r="P260" s="2" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="261" spans="1:16" hidden="1">
       <c r="A261" s="1">
         <v>260</v>
       </c>
@@ -13847,8 +16529,18 @@
       <c r="I261" s="2" t="s">
         <v>1722</v>
       </c>
-    </row>
-    <row r="262" spans="1:9">
+      <c r="N261" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O261" s="1">
+        <v>257</v>
+      </c>
+      <c r="P261" s="2" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="262" spans="1:16" hidden="1">
       <c r="A262" s="1">
         <v>261</v>
       </c>
@@ -13876,8 +16568,18 @@
       <c r="I262" s="2" t="s">
         <v>1723</v>
       </c>
-    </row>
-    <row r="263" spans="1:9">
+      <c r="N262" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O262" s="1">
+        <v>258</v>
+      </c>
+      <c r="P262" s="2" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="263" spans="1:16" hidden="1">
       <c r="A263" s="1">
         <v>262</v>
       </c>
@@ -13905,8 +16607,18 @@
       <c r="I263" s="2" t="s">
         <v>1724</v>
       </c>
-    </row>
-    <row r="264" spans="1:9">
+      <c r="N263" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O263" s="1">
+        <v>259</v>
+      </c>
+      <c r="P263" s="2" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="264" spans="1:16" hidden="1">
       <c r="A264" s="1">
         <v>263</v>
       </c>
@@ -13934,8 +16646,18 @@
       <c r="I264" s="2" t="s">
         <v>1725</v>
       </c>
-    </row>
-    <row r="265" spans="1:9">
+      <c r="N264" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O264" s="1">
+        <v>260</v>
+      </c>
+      <c r="P264" s="2" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="265" spans="1:16">
       <c r="A265" s="1">
         <v>264</v>
       </c>
@@ -13954,8 +16676,18 @@
       <c r="H265" t="s">
         <v>1461</v>
       </c>
-    </row>
-    <row r="266" spans="1:9">
+      <c r="N265" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O265" s="1">
+        <v>261</v>
+      </c>
+      <c r="P265" s="2" t="s">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="266" spans="1:16" hidden="1">
       <c r="A266" s="1">
         <v>265</v>
       </c>
@@ -13983,8 +16715,18 @@
       <c r="I266" s="2" t="s">
         <v>1726</v>
       </c>
-    </row>
-    <row r="267" spans="1:9">
+      <c r="N266" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O266" s="1">
+        <v>262</v>
+      </c>
+      <c r="P266" s="2" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="267" spans="1:16" hidden="1">
       <c r="A267" s="1">
         <v>266</v>
       </c>
@@ -14012,8 +16754,18 @@
       <c r="I267" s="2" t="s">
         <v>1727</v>
       </c>
-    </row>
-    <row r="268" spans="1:9">
+      <c r="N267" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O267" s="1">
+        <v>263</v>
+      </c>
+      <c r="P267" s="2" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="268" spans="1:16" hidden="1">
       <c r="A268" s="1">
         <v>267</v>
       </c>
@@ -14041,8 +16793,18 @@
       <c r="I268" s="2" t="s">
         <v>1728</v>
       </c>
-    </row>
-    <row r="269" spans="1:9">
+      <c r="N268" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O268" s="1">
+        <v>264</v>
+      </c>
+      <c r="P268" s="2" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="269" spans="1:16" hidden="1">
       <c r="A269" s="1">
         <v>268</v>
       </c>
@@ -14070,8 +16832,18 @@
       <c r="I269" s="2" t="s">
         <v>1729</v>
       </c>
-    </row>
-    <row r="270" spans="1:9">
+      <c r="N269" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O269" s="1">
+        <v>265</v>
+      </c>
+      <c r="P269" s="2" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="270" spans="1:16" hidden="1">
       <c r="A270" s="1">
         <v>269</v>
       </c>
@@ -14099,8 +16871,18 @@
       <c r="I270" s="2" t="s">
         <v>1730</v>
       </c>
-    </row>
-    <row r="271" spans="1:9">
+      <c r="N270" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O270" s="1">
+        <v>266</v>
+      </c>
+      <c r="P270" s="2" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="271" spans="1:16" hidden="1">
       <c r="A271" s="1">
         <v>270</v>
       </c>
@@ -14128,8 +16910,18 @@
       <c r="I271" s="2" t="s">
         <v>1731</v>
       </c>
-    </row>
-    <row r="272" spans="1:9">
+      <c r="N271" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O271" s="1">
+        <v>267</v>
+      </c>
+      <c r="P271" s="2" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="272" spans="1:16" hidden="1">
       <c r="A272" s="1">
         <v>271</v>
       </c>
@@ -14157,8 +16949,18 @@
       <c r="I272" s="2" t="s">
         <v>1732</v>
       </c>
-    </row>
-    <row r="273" spans="1:9">
+      <c r="N272" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O272" s="1">
+        <v>268</v>
+      </c>
+      <c r="P272" s="2" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="273" spans="1:16" hidden="1">
       <c r="A273" s="1">
         <v>272</v>
       </c>
@@ -14186,8 +16988,18 @@
       <c r="I273" s="2" t="s">
         <v>1733</v>
       </c>
-    </row>
-    <row r="274" spans="1:9">
+      <c r="N273" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O273" s="1">
+        <v>269</v>
+      </c>
+      <c r="P273" s="2" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="274" spans="1:16" hidden="1">
       <c r="A274" s="1">
         <v>273</v>
       </c>
@@ -14215,8 +17027,18 @@
       <c r="I274" s="2" t="s">
         <v>1734</v>
       </c>
-    </row>
-    <row r="275" spans="1:9">
+      <c r="N274" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O274" s="1">
+        <v>270</v>
+      </c>
+      <c r="P274" s="2" t="s">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="275" spans="1:16" hidden="1">
       <c r="A275" s="1">
         <v>274</v>
       </c>
@@ -14244,8 +17066,18 @@
       <c r="I275" s="2" t="s">
         <v>1735</v>
       </c>
-    </row>
-    <row r="276" spans="1:9">
+      <c r="N275" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O275" s="1">
+        <v>271</v>
+      </c>
+      <c r="P275" s="2" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="276" spans="1:16" hidden="1">
       <c r="A276" s="1">
         <v>275</v>
       </c>
@@ -14273,8 +17105,18 @@
       <c r="I276" s="2" t="s">
         <v>1736</v>
       </c>
-    </row>
-    <row r="277" spans="1:9">
+      <c r="N276" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O276" s="1">
+        <v>272</v>
+      </c>
+      <c r="P276" s="2" t="s">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="277" spans="1:16" hidden="1">
       <c r="A277" s="1">
         <v>276</v>
       </c>
@@ -14302,8 +17144,18 @@
       <c r="I277" s="2" t="s">
         <v>1737</v>
       </c>
-    </row>
-    <row r="278" spans="1:9">
+      <c r="N277" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O277" s="1">
+        <v>273</v>
+      </c>
+      <c r="P277" s="2" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="278" spans="1:16" hidden="1">
       <c r="A278" s="1">
         <v>277</v>
       </c>
@@ -14331,8 +17183,18 @@
       <c r="I278" s="2" t="s">
         <v>1738</v>
       </c>
-    </row>
-    <row r="279" spans="1:9">
+      <c r="N278" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O278" s="1">
+        <v>274</v>
+      </c>
+      <c r="P278" s="2" t="s">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="279" spans="1:16" hidden="1">
       <c r="A279" s="1">
         <v>278</v>
       </c>
@@ -14360,8 +17222,18 @@
       <c r="I279" s="2" t="s">
         <v>1739</v>
       </c>
-    </row>
-    <row r="280" spans="1:9">
+      <c r="N279" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O279" s="1">
+        <v>275</v>
+      </c>
+      <c r="P279" s="2" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="280" spans="1:16" hidden="1">
       <c r="A280" s="1">
         <v>279</v>
       </c>
@@ -14389,8 +17261,18 @@
       <c r="I280" s="2" t="s">
         <v>1740</v>
       </c>
-    </row>
-    <row r="281" spans="1:9">
+      <c r="N280" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O280" s="1">
+        <v>276</v>
+      </c>
+      <c r="P280" s="2" t="s">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="281" spans="1:16" hidden="1">
       <c r="A281" s="1">
         <v>280</v>
       </c>
@@ -14418,8 +17300,18 @@
       <c r="I281" s="2" t="s">
         <v>1741</v>
       </c>
-    </row>
-    <row r="282" spans="1:9">
+      <c r="N281" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O281" s="1">
+        <v>277</v>
+      </c>
+      <c r="P281" s="2" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="282" spans="1:16" hidden="1">
       <c r="A282" s="1">
         <v>281</v>
       </c>
@@ -14447,8 +17339,18 @@
       <c r="I282" s="2" t="s">
         <v>1742</v>
       </c>
-    </row>
-    <row r="283" spans="1:9">
+      <c r="N282" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O282" s="1">
+        <v>278</v>
+      </c>
+      <c r="P282" s="2" t="s">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="283" spans="1:16" hidden="1">
       <c r="A283" s="1">
         <v>282</v>
       </c>
@@ -14476,8 +17378,18 @@
       <c r="I283" s="2" t="s">
         <v>1743</v>
       </c>
-    </row>
-    <row r="284" spans="1:9">
+      <c r="N283" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O283" s="1">
+        <v>279</v>
+      </c>
+      <c r="P283" s="2" t="s">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="284" spans="1:16" hidden="1">
       <c r="A284" s="1">
         <v>283</v>
       </c>
@@ -14505,8 +17417,18 @@
       <c r="I284" s="2" t="s">
         <v>1744</v>
       </c>
-    </row>
-    <row r="285" spans="1:9">
+      <c r="N284" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O284" s="1">
+        <v>280</v>
+      </c>
+      <c r="P284" s="2" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="285" spans="1:16">
       <c r="A285" s="1">
         <v>284</v>
       </c>
@@ -14525,8 +17447,18 @@
       <c r="H285" t="s">
         <v>1481</v>
       </c>
-    </row>
-    <row r="286" spans="1:9">
+      <c r="N285" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O285" s="1">
+        <v>281</v>
+      </c>
+      <c r="P285" s="2" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="286" spans="1:16" hidden="1">
       <c r="A286" s="1">
         <v>285</v>
       </c>
@@ -14554,8 +17486,18 @@
       <c r="I286" s="2" t="s">
         <v>1745</v>
       </c>
-    </row>
-    <row r="287" spans="1:9">
+      <c r="N286" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O286" s="1">
+        <v>282</v>
+      </c>
+      <c r="P286" s="2" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="287" spans="1:16" hidden="1">
       <c r="A287" s="1">
         <v>286</v>
       </c>
@@ -14583,8 +17525,18 @@
       <c r="I287" s="2" t="s">
         <v>1746</v>
       </c>
-    </row>
-    <row r="288" spans="1:9">
+      <c r="N287" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O287" s="1">
+        <v>283</v>
+      </c>
+      <c r="P287" s="2" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="288" spans="1:16" hidden="1">
       <c r="A288" s="1">
         <v>287</v>
       </c>
@@ -14612,8 +17564,18 @@
       <c r="I288" s="2" t="s">
         <v>1747</v>
       </c>
-    </row>
-    <row r="289" spans="1:9">
+      <c r="N288" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O288" s="1">
+        <v>284</v>
+      </c>
+      <c r="P288" s="2" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="289" spans="1:16" hidden="1">
       <c r="A289" s="1">
         <v>288</v>
       </c>
@@ -14641,8 +17603,18 @@
       <c r="I289" s="2" t="s">
         <v>1748</v>
       </c>
-    </row>
-    <row r="290" spans="1:9">
+      <c r="N289" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O289" s="1">
+        <v>285</v>
+      </c>
+      <c r="P289" s="2" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="290" spans="1:16" hidden="1">
       <c r="A290" s="1">
         <v>289</v>
       </c>
@@ -14670,8 +17642,18 @@
       <c r="I290" s="2" t="s">
         <v>1749</v>
       </c>
-    </row>
-    <row r="291" spans="1:9">
+      <c r="N290" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O290" s="1">
+        <v>286</v>
+      </c>
+      <c r="P290" s="2" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="291" spans="1:16" hidden="1">
       <c r="A291" s="1">
         <v>290</v>
       </c>
@@ -14699,8 +17681,18 @@
       <c r="I291" s="2" t="s">
         <v>1750</v>
       </c>
-    </row>
-    <row r="292" spans="1:9">
+      <c r="N291" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O291" s="1">
+        <v>287</v>
+      </c>
+      <c r="P291" s="2" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="292" spans="1:16" hidden="1">
       <c r="A292" s="1">
         <v>291</v>
       </c>
@@ -14728,8 +17720,18 @@
       <c r="I292" s="2" t="s">
         <v>1751</v>
       </c>
-    </row>
-    <row r="293" spans="1:9">
+      <c r="N292" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O292" s="1">
+        <v>288</v>
+      </c>
+      <c r="P292" s="2" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="293" spans="1:16" hidden="1">
       <c r="A293" s="1">
         <v>292</v>
       </c>
@@ -14757,8 +17759,18 @@
       <c r="I293" s="2" t="s">
         <v>1752</v>
       </c>
-    </row>
-    <row r="294" spans="1:9">
+      <c r="N293" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O293" s="1">
+        <v>289</v>
+      </c>
+      <c r="P293" s="2" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="294" spans="1:16" hidden="1">
       <c r="A294" s="1">
         <v>293</v>
       </c>
@@ -14786,8 +17798,18 @@
       <c r="I294" s="2" t="s">
         <v>1490</v>
       </c>
-    </row>
-    <row r="295" spans="1:9">
+      <c r="N294" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O294" s="1">
+        <v>290</v>
+      </c>
+      <c r="P294" s="2" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="295" spans="1:16" hidden="1">
       <c r="A295" s="1">
         <v>294</v>
       </c>
@@ -14815,8 +17837,25 @@
       <c r="I295" s="2" t="s">
         <v>1491</v>
       </c>
+      <c r="N295" t="b">
+        <f>I295=P295</f>
+        <v>1</v>
+      </c>
+      <c r="O295" s="1">
+        <v>291</v>
+      </c>
+      <c r="P295" s="2" t="s">
+        <v>1491</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:P295">
+    <filterColumn colId="13">
+      <filters>
+        <filter val="ЛОЖЬ"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="I2" r:id="rId1"/>
     <hyperlink ref="I3" r:id="rId2"/>
@@ -15083,6 +18122,498 @@
     <hyperlink ref="I293" r:id="rId263"/>
     <hyperlink ref="I294" r:id="rId264"/>
     <hyperlink ref="I295" r:id="rId265"/>
+    <hyperlink ref="P4" r:id="rId266"/>
+    <hyperlink ref="P5" r:id="rId267"/>
+    <hyperlink ref="P6" r:id="rId268"/>
+    <hyperlink ref="P7" r:id="rId269"/>
+    <hyperlink ref="P8" r:id="rId270"/>
+    <hyperlink ref="P9" r:id="rId271"/>
+    <hyperlink ref="P10" r:id="rId272"/>
+    <hyperlink ref="P11" r:id="rId273"/>
+    <hyperlink ref="P12" r:id="rId274"/>
+    <hyperlink ref="P13" r:id="rId275"/>
+    <hyperlink ref="P14" r:id="rId276"/>
+    <hyperlink ref="P15" r:id="rId277"/>
+    <hyperlink ref="P16" r:id="rId278"/>
+    <hyperlink ref="P17" r:id="rId279"/>
+    <hyperlink ref="P18" r:id="rId280"/>
+    <hyperlink ref="P19" r:id="rId281"/>
+    <hyperlink ref="P20" r:id="rId282"/>
+    <hyperlink ref="P21" r:id="rId283"/>
+    <hyperlink ref="P22" r:id="rId284"/>
+    <hyperlink ref="P23" r:id="rId285"/>
+    <hyperlink ref="P24" r:id="rId286"/>
+    <hyperlink ref="P25" r:id="rId287"/>
+    <hyperlink ref="P26" r:id="rId288"/>
+    <hyperlink ref="P27" r:id="rId289"/>
+    <hyperlink ref="P28" r:id="rId290"/>
+    <hyperlink ref="P29" r:id="rId291"/>
+    <hyperlink ref="P30" r:id="rId292"/>
+    <hyperlink ref="P31" r:id="rId293"/>
+    <hyperlink ref="P32" r:id="rId294"/>
+    <hyperlink ref="P33" r:id="rId295"/>
+    <hyperlink ref="P34" r:id="rId296"/>
+    <hyperlink ref="P35" r:id="rId297"/>
+    <hyperlink ref="P36" r:id="rId298"/>
+    <hyperlink ref="P37" r:id="rId299"/>
+    <hyperlink ref="P38" r:id="rId300"/>
+    <hyperlink ref="P39" r:id="rId301"/>
+    <hyperlink ref="P40" r:id="rId302"/>
+    <hyperlink ref="P41" r:id="rId303"/>
+    <hyperlink ref="P42" r:id="rId304"/>
+    <hyperlink ref="P43" r:id="rId305"/>
+    <hyperlink ref="P44" r:id="rId306"/>
+    <hyperlink ref="P45" r:id="rId307"/>
+    <hyperlink ref="P46" r:id="rId308"/>
+    <hyperlink ref="P47" r:id="rId309"/>
+    <hyperlink ref="P48" r:id="rId310"/>
+    <hyperlink ref="P49" r:id="rId311"/>
+    <hyperlink ref="P50" r:id="rId312"/>
+    <hyperlink ref="P51" r:id="rId313"/>
+    <hyperlink ref="P52" r:id="rId314"/>
+    <hyperlink ref="P53" r:id="rId315"/>
+    <hyperlink ref="P54" r:id="rId316"/>
+    <hyperlink ref="P55" r:id="rId317"/>
+    <hyperlink ref="P56" r:id="rId318"/>
+    <hyperlink ref="P57" r:id="rId319"/>
+    <hyperlink ref="P58" r:id="rId320"/>
+    <hyperlink ref="P59" r:id="rId321"/>
+    <hyperlink ref="P60" r:id="rId322"/>
+    <hyperlink ref="P61" r:id="rId323"/>
+    <hyperlink ref="P62" r:id="rId324"/>
+    <hyperlink ref="P63" r:id="rId325"/>
+    <hyperlink ref="P64" r:id="rId326"/>
+    <hyperlink ref="P65" r:id="rId327"/>
+    <hyperlink ref="P66" r:id="rId328"/>
+    <hyperlink ref="P67" r:id="rId329"/>
+    <hyperlink ref="P68" r:id="rId330"/>
+    <hyperlink ref="P69" r:id="rId331"/>
+    <hyperlink ref="P70" r:id="rId332"/>
+    <hyperlink ref="P71" r:id="rId333"/>
+    <hyperlink ref="P72" r:id="rId334"/>
+    <hyperlink ref="P73" r:id="rId335"/>
+    <hyperlink ref="P74" r:id="rId336"/>
+    <hyperlink ref="P75" r:id="rId337"/>
+    <hyperlink ref="P76" r:id="rId338"/>
+    <hyperlink ref="P77" r:id="rId339"/>
+    <hyperlink ref="P78" r:id="rId340"/>
+    <hyperlink ref="P79" r:id="rId341"/>
+    <hyperlink ref="P80" r:id="rId342"/>
+    <hyperlink ref="P81" r:id="rId343"/>
+    <hyperlink ref="P82" r:id="rId344"/>
+    <hyperlink ref="P83" r:id="rId345"/>
+    <hyperlink ref="P84" r:id="rId346"/>
+    <hyperlink ref="P85" r:id="rId347"/>
+    <hyperlink ref="P86" r:id="rId348"/>
+    <hyperlink ref="P87" r:id="rId349"/>
+    <hyperlink ref="P88" r:id="rId350"/>
+    <hyperlink ref="P89" r:id="rId351"/>
+    <hyperlink ref="P90" r:id="rId352"/>
+    <hyperlink ref="P91" r:id="rId353"/>
+    <hyperlink ref="P92" r:id="rId354"/>
+    <hyperlink ref="P93" r:id="rId355"/>
+    <hyperlink ref="P94" r:id="rId356"/>
+    <hyperlink ref="P95" r:id="rId357"/>
+    <hyperlink ref="P96" r:id="rId358"/>
+    <hyperlink ref="P97" r:id="rId359"/>
+    <hyperlink ref="P98" r:id="rId360"/>
+    <hyperlink ref="P99" r:id="rId361"/>
+    <hyperlink ref="P100" r:id="rId362"/>
+    <hyperlink ref="P101" r:id="rId363"/>
+    <hyperlink ref="P102" r:id="rId364"/>
+    <hyperlink ref="P103" r:id="rId365"/>
+    <hyperlink ref="P104" r:id="rId366"/>
+    <hyperlink ref="P105" r:id="rId367"/>
+    <hyperlink ref="P106" r:id="rId368"/>
+    <hyperlink ref="P107" r:id="rId369"/>
+    <hyperlink ref="P108" r:id="rId370"/>
+    <hyperlink ref="P109" r:id="rId371"/>
+    <hyperlink ref="P110" r:id="rId372"/>
+    <hyperlink ref="P111" r:id="rId373"/>
+    <hyperlink ref="P112" r:id="rId374"/>
+    <hyperlink ref="P113" r:id="rId375"/>
+    <hyperlink ref="P114" r:id="rId376"/>
+    <hyperlink ref="P115" r:id="rId377"/>
+    <hyperlink ref="P116" r:id="rId378"/>
+    <hyperlink ref="P117" r:id="rId379"/>
+    <hyperlink ref="P118" r:id="rId380"/>
+    <hyperlink ref="P119" r:id="rId381"/>
+    <hyperlink ref="P120" r:id="rId382"/>
+    <hyperlink ref="P121" r:id="rId383"/>
+    <hyperlink ref="P122" r:id="rId384"/>
+    <hyperlink ref="P123" r:id="rId385"/>
+    <hyperlink ref="P124" r:id="rId386"/>
+    <hyperlink ref="P125" r:id="rId387"/>
+    <hyperlink ref="P126" r:id="rId388"/>
+    <hyperlink ref="P127" r:id="rId389"/>
+    <hyperlink ref="P128" r:id="rId390"/>
+    <hyperlink ref="P129" r:id="rId391"/>
+    <hyperlink ref="P130" r:id="rId392"/>
+    <hyperlink ref="P131" r:id="rId393"/>
+    <hyperlink ref="P132" r:id="rId394"/>
+    <hyperlink ref="P133" r:id="rId395"/>
+    <hyperlink ref="P134" r:id="rId396"/>
+    <hyperlink ref="P135" r:id="rId397"/>
+    <hyperlink ref="P136" r:id="rId398"/>
+    <hyperlink ref="P137" r:id="rId399"/>
+    <hyperlink ref="P138" r:id="rId400"/>
+    <hyperlink ref="P139" r:id="rId401"/>
+    <hyperlink ref="P140" r:id="rId402"/>
+    <hyperlink ref="P141" r:id="rId403"/>
+    <hyperlink ref="P142" r:id="rId404"/>
+    <hyperlink ref="P143" r:id="rId405"/>
+    <hyperlink ref="P144" r:id="rId406"/>
+    <hyperlink ref="P145" r:id="rId407"/>
+    <hyperlink ref="P146" r:id="rId408"/>
+    <hyperlink ref="P147" r:id="rId409"/>
+    <hyperlink ref="P148" r:id="rId410"/>
+    <hyperlink ref="P149" r:id="rId411"/>
+    <hyperlink ref="P150" r:id="rId412"/>
+    <hyperlink ref="P151" r:id="rId413"/>
+    <hyperlink ref="P152" r:id="rId414"/>
+    <hyperlink ref="P153" r:id="rId415"/>
+    <hyperlink ref="P154" r:id="rId416"/>
+    <hyperlink ref="P155" r:id="rId417"/>
+    <hyperlink ref="P156" r:id="rId418"/>
+    <hyperlink ref="P157" r:id="rId419"/>
+    <hyperlink ref="P158" r:id="rId420"/>
+    <hyperlink ref="P159" r:id="rId421"/>
+    <hyperlink ref="P160" r:id="rId422"/>
+    <hyperlink ref="P161" r:id="rId423"/>
+    <hyperlink ref="P162" r:id="rId424"/>
+    <hyperlink ref="P163" r:id="rId425"/>
+    <hyperlink ref="P164" r:id="rId426"/>
+    <hyperlink ref="P165" r:id="rId427"/>
+    <hyperlink ref="P166" r:id="rId428"/>
+    <hyperlink ref="P167" r:id="rId429"/>
+    <hyperlink ref="P168" r:id="rId430"/>
+    <hyperlink ref="P169" r:id="rId431"/>
+    <hyperlink ref="P170" r:id="rId432"/>
+    <hyperlink ref="P171" r:id="rId433"/>
+    <hyperlink ref="P172" r:id="rId434"/>
+    <hyperlink ref="P173" r:id="rId435"/>
+    <hyperlink ref="P174" r:id="rId436"/>
+    <hyperlink ref="P175" r:id="rId437"/>
+    <hyperlink ref="P176" r:id="rId438"/>
+    <hyperlink ref="P177" r:id="rId439"/>
+    <hyperlink ref="P178" r:id="rId440"/>
+    <hyperlink ref="P179" r:id="rId441"/>
+    <hyperlink ref="P180" r:id="rId442"/>
+    <hyperlink ref="P181" r:id="rId443"/>
+    <hyperlink ref="P182" r:id="rId444"/>
+    <hyperlink ref="P183" r:id="rId445"/>
+    <hyperlink ref="P184" r:id="rId446"/>
+    <hyperlink ref="P185" r:id="rId447"/>
+    <hyperlink ref="P186" r:id="rId448"/>
+    <hyperlink ref="P187" r:id="rId449"/>
+    <hyperlink ref="P188" r:id="rId450"/>
+    <hyperlink ref="P189" r:id="rId451"/>
+    <hyperlink ref="P190" r:id="rId452"/>
+    <hyperlink ref="P191" r:id="rId453"/>
+    <hyperlink ref="P192" r:id="rId454"/>
+    <hyperlink ref="P193" r:id="rId455"/>
+    <hyperlink ref="P194" r:id="rId456"/>
+    <hyperlink ref="P195" r:id="rId457"/>
+    <hyperlink ref="P196" r:id="rId458"/>
+    <hyperlink ref="P197" r:id="rId459"/>
+    <hyperlink ref="P198" r:id="rId460"/>
+    <hyperlink ref="P199" r:id="rId461"/>
+    <hyperlink ref="P200" r:id="rId462"/>
+    <hyperlink ref="P201" r:id="rId463"/>
+    <hyperlink ref="P202" r:id="rId464"/>
+    <hyperlink ref="P203" r:id="rId465"/>
+    <hyperlink ref="P204" r:id="rId466"/>
+    <hyperlink ref="P205" r:id="rId467"/>
+    <hyperlink ref="P206" r:id="rId468"/>
+    <hyperlink ref="P207" r:id="rId469"/>
+    <hyperlink ref="P208" r:id="rId470"/>
+    <hyperlink ref="P209" r:id="rId471"/>
+    <hyperlink ref="P210" r:id="rId472"/>
+    <hyperlink ref="P211" r:id="rId473"/>
+    <hyperlink ref="P212" r:id="rId474"/>
+    <hyperlink ref="P213" r:id="rId475"/>
+    <hyperlink ref="P214" r:id="rId476"/>
+    <hyperlink ref="P215" r:id="rId477"/>
+    <hyperlink ref="P216" r:id="rId478"/>
+    <hyperlink ref="P217" r:id="rId479"/>
+    <hyperlink ref="P218" r:id="rId480"/>
+    <hyperlink ref="P219" r:id="rId481"/>
+    <hyperlink ref="P220" r:id="rId482"/>
+    <hyperlink ref="P221" r:id="rId483"/>
+    <hyperlink ref="P222" r:id="rId484"/>
+    <hyperlink ref="P223" r:id="rId485"/>
+    <hyperlink ref="P224" r:id="rId486"/>
+    <hyperlink ref="P225" r:id="rId487"/>
+    <hyperlink ref="P226" r:id="rId488"/>
+    <hyperlink ref="P227" r:id="rId489"/>
+    <hyperlink ref="P228" r:id="rId490"/>
+    <hyperlink ref="P229" r:id="rId491"/>
+    <hyperlink ref="P230" r:id="rId492"/>
+    <hyperlink ref="P231" r:id="rId493"/>
+    <hyperlink ref="P232" r:id="rId494"/>
+    <hyperlink ref="P233" r:id="rId495"/>
+    <hyperlink ref="P234" r:id="rId496"/>
+    <hyperlink ref="P235" r:id="rId497"/>
+    <hyperlink ref="P236" r:id="rId498"/>
+    <hyperlink ref="P237" r:id="rId499"/>
+    <hyperlink ref="P238" r:id="rId500"/>
+    <hyperlink ref="P239" r:id="rId501"/>
+    <hyperlink ref="P240" r:id="rId502"/>
+    <hyperlink ref="P241" r:id="rId503"/>
+    <hyperlink ref="P242" r:id="rId504"/>
+    <hyperlink ref="P243" r:id="rId505"/>
+    <hyperlink ref="P244" r:id="rId506"/>
+    <hyperlink ref="P245" r:id="rId507"/>
+    <hyperlink ref="P246" r:id="rId508"/>
+    <hyperlink ref="P247" r:id="rId509"/>
+    <hyperlink ref="P248" r:id="rId510"/>
+    <hyperlink ref="P249" r:id="rId511"/>
+    <hyperlink ref="P250" r:id="rId512"/>
+    <hyperlink ref="P251" r:id="rId513"/>
+    <hyperlink ref="P252" r:id="rId514"/>
+    <hyperlink ref="P253" r:id="rId515"/>
+    <hyperlink ref="P254" r:id="rId516"/>
+    <hyperlink ref="P255" r:id="rId517"/>
+    <hyperlink ref="P256" r:id="rId518"/>
+    <hyperlink ref="P257" r:id="rId519"/>
+    <hyperlink ref="P258" r:id="rId520"/>
+    <hyperlink ref="P259" r:id="rId521"/>
+    <hyperlink ref="P260" r:id="rId522"/>
+    <hyperlink ref="P261" r:id="rId523"/>
+    <hyperlink ref="P262" r:id="rId524"/>
+    <hyperlink ref="P263" r:id="rId525"/>
+    <hyperlink ref="P264" r:id="rId526"/>
+    <hyperlink ref="P265" r:id="rId527"/>
+    <hyperlink ref="P266" r:id="rId528"/>
+    <hyperlink ref="P267" r:id="rId529"/>
+    <hyperlink ref="P268" r:id="rId530"/>
+    <hyperlink ref="P269" r:id="rId531"/>
+    <hyperlink ref="P270" r:id="rId532"/>
+    <hyperlink ref="P271" r:id="rId533"/>
+    <hyperlink ref="P272" r:id="rId534"/>
+    <hyperlink ref="P273" r:id="rId535"/>
+    <hyperlink ref="P274" r:id="rId536"/>
+    <hyperlink ref="P275" r:id="rId537"/>
+    <hyperlink ref="P276" r:id="rId538"/>
+    <hyperlink ref="P277" r:id="rId539"/>
+    <hyperlink ref="P278" r:id="rId540"/>
+    <hyperlink ref="P279" r:id="rId541"/>
+    <hyperlink ref="P280" r:id="rId542"/>
+    <hyperlink ref="P281" r:id="rId543"/>
+    <hyperlink ref="P282" r:id="rId544"/>
+    <hyperlink ref="P283" r:id="rId545"/>
+    <hyperlink ref="P284" r:id="rId546"/>
+    <hyperlink ref="P285" r:id="rId547"/>
+    <hyperlink ref="P286" r:id="rId548"/>
+    <hyperlink ref="P287" r:id="rId549"/>
+    <hyperlink ref="P288" r:id="rId550"/>
+    <hyperlink ref="P289" r:id="rId551"/>
+    <hyperlink ref="P290" r:id="rId552"/>
+    <hyperlink ref="P291" r:id="rId553"/>
+    <hyperlink ref="P292" r:id="rId554"/>
+    <hyperlink ref="P293" r:id="rId555"/>
+    <hyperlink ref="P294" r:id="rId556"/>
+    <hyperlink ref="P295" r:id="rId557"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="102.140625" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="2" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="2" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2" t="s">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="2" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="2" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="2" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="2" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="2" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="2" t="s">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="2" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="2" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="2" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="2" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="2" t="s">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="2" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="2" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="2" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="2" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="2" t="s">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="2" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="2" t="s">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="2" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A6" r:id="rId5"/>
+    <hyperlink ref="A7" r:id="rId6"/>
+    <hyperlink ref="A8" r:id="rId7"/>
+    <hyperlink ref="A9" r:id="rId8"/>
+    <hyperlink ref="A10" r:id="rId9"/>
+    <hyperlink ref="A11" r:id="rId10"/>
+    <hyperlink ref="A12" r:id="rId11"/>
+    <hyperlink ref="A13" r:id="rId12"/>
+    <hyperlink ref="A14" r:id="rId13"/>
+    <hyperlink ref="A15" r:id="rId14"/>
+    <hyperlink ref="A16" r:id="rId15"/>
+    <hyperlink ref="A17" r:id="rId16"/>
+    <hyperlink ref="A18" r:id="rId17"/>
+    <hyperlink ref="A19" r:id="rId18"/>
+    <hyperlink ref="A20" r:id="rId19"/>
+    <hyperlink ref="A21" r:id="rId20"/>
+    <hyperlink ref="A22" r:id="rId21"/>
+    <hyperlink ref="A23" r:id="rId22"/>
+    <hyperlink ref="A24" r:id="rId23"/>
+    <hyperlink ref="A25" r:id="rId24"/>
+    <hyperlink ref="A26" r:id="rId25"/>
+    <hyperlink ref="A27" r:id="rId26"/>
+    <hyperlink ref="A28" r:id="rId27"/>
+    <hyperlink ref="A29" r:id="rId28"/>
+    <hyperlink ref="A30" r:id="rId29"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
